--- a/outputs-HGR-r202/test-f__Lactobacillaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Lactobacillaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
   <si>
     <t>Row</t>
   </si>
@@ -346,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -356,14 +356,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,48 +396,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -474,7 +478,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -515,7 +519,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -556,7 +560,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -597,7 +601,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -638,2427 +642,2427 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.02536930699921635</v>
+        <v>0.010694404138104199</v>
       </c>
       <c r="C7">
-        <v>0.11808815540939352</v>
+        <v>0.012500631612411587</v>
       </c>
       <c r="D7">
-        <v>0.013794023384546023</v>
+        <v>0.33732306583409138</v>
       </c>
       <c r="E7">
-        <v>0.037164091974987538</v>
+        <v>0.010713721678517309</v>
       </c>
       <c r="F7">
-        <v>0.022463412871903673</v>
+        <v>0.017267698435719573</v>
       </c>
       <c r="G7">
-        <v>0.0095420708942830605</v>
+        <v>0.010979213458662691</v>
       </c>
       <c r="H7">
-        <v>0.010082061695935073</v>
+        <v>0.011333491073593915</v>
       </c>
       <c r="I7">
-        <v>0.099782362495502902</v>
+        <v>0.3611815531747225</v>
       </c>
       <c r="J7">
-        <v>0.44923529954004793</v>
+        <v>0.018967151176602352</v>
       </c>
       <c r="K7">
-        <v>0.1811874867908369</v>
+        <v>0.19569426496920964</v>
       </c>
       <c r="L7">
-        <v>0.033291727943347039</v>
+        <v>0.013344804448365048</v>
       </c>
       <c r="M7">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.00038179439909431318</v>
+        <v>0.0064278733134471916</v>
       </c>
       <c r="C8">
-        <v>0.0023516530361352901</v>
+        <v>0.015564491955174228</v>
       </c>
       <c r="D8">
-        <v>0.19852419651227377</v>
+        <v>0.013699252578551455</v>
       </c>
       <c r="E8">
-        <v>0.015456308921138806</v>
+        <v>6.4814482521427814e-06</v>
       </c>
       <c r="F8">
-        <v>0.01736886694201684</v>
+        <v>0.0012248835632982164</v>
       </c>
       <c r="G8">
-        <v>0.21564514797608067</v>
+        <v>0.012421388869438318</v>
       </c>
       <c r="H8">
-        <v>0.00013778217638902668</v>
+        <v>0.033349112386332737</v>
       </c>
       <c r="I8">
-        <v>0.54883340409273884</v>
+        <v>0.00099751124439390981</v>
       </c>
       <c r="J8">
-        <v>0.0010324610274513493</v>
+        <v>0.91608271438001254</v>
       </c>
       <c r="K8">
-        <v>2.232706523854746e-14</v>
+        <v>3.3423603061654635e-14</v>
       </c>
       <c r="L8">
-        <v>0.0002683849166587567</v>
+        <v>0.00022629026106566497</v>
       </c>
       <c r="M8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8.0692902512906388e-05</v>
+      </c>
+      <c r="C9">
+        <v>0.0010754423606656649</v>
+      </c>
+      <c r="D9">
+        <v>0.78689612543992205</v>
+      </c>
+      <c r="E9">
+        <v>2.7571833338616887e-05</v>
+      </c>
+      <c r="F9">
+        <v>0.024019187490283613</v>
+      </c>
+      <c r="G9">
+        <v>1.1619263938118664e-05</v>
+      </c>
+      <c r="H9">
+        <v>0.00066944336998736728</v>
+      </c>
+      <c r="I9">
+        <v>0.02517949596739847</v>
+      </c>
+      <c r="J9">
+        <v>0.13215780872109717</v>
+      </c>
+      <c r="K9">
+        <v>2.6646510154336893e-14</v>
+      </c>
+      <c r="L9">
+        <v>0.0298826126508294</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3.7029039334369374e-05</v>
+      </c>
+      <c r="C10">
+        <v>0.0010917491036445859</v>
+      </c>
+      <c r="D10">
+        <v>0.7631962984671038</v>
+      </c>
+      <c r="E10">
+        <v>6.9544691757502202e-05</v>
+      </c>
+      <c r="F10">
+        <v>0.016148993420125265</v>
+      </c>
+      <c r="G10">
+        <v>5.2018367222081566e-06</v>
+      </c>
+      <c r="H10">
+        <v>0.00029353388983819505</v>
+      </c>
+      <c r="I10">
+        <v>0.020760757250732079</v>
+      </c>
+      <c r="J10">
+        <v>0.17865195352361449</v>
+      </c>
+      <c r="K10">
+        <v>2.2212021503446789e-14</v>
+      </c>
+      <c r="L10">
+        <v>0.019744938777105293</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.00017258088101054322</v>
+      </c>
+      <c r="C11">
+        <v>0.0064865946760095322</v>
+      </c>
+      <c r="D11">
+        <v>0.1451431348689308</v>
+      </c>
+      <c r="E11">
+        <v>0.015712023196807028</v>
+      </c>
+      <c r="F11">
+        <v>0.01678677712080005</v>
+      </c>
+      <c r="G11">
+        <v>0.025638262576234361</v>
+      </c>
+      <c r="H11">
+        <v>0.00012733776986847899</v>
+      </c>
+      <c r="I11">
+        <v>0.78713040268367451</v>
+      </c>
+      <c r="J11">
+        <v>0.0024062415648680919</v>
+      </c>
+      <c r="K11">
+        <v>2.224163775704937e-14</v>
+      </c>
+      <c r="L11">
+        <v>0.00039664466177441254</v>
+      </c>
+      <c r="M11">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.0022702042810693133</v>
+      </c>
+      <c r="C12">
+        <v>0.013253796191462336</v>
+      </c>
+      <c r="D12">
+        <v>0.092927175181277785</v>
+      </c>
+      <c r="E12">
+        <v>0.018441093491242254</v>
+      </c>
+      <c r="F12">
+        <v>0.021771234910062845</v>
+      </c>
+      <c r="G12">
+        <v>0.052412862836553338</v>
+      </c>
+      <c r="H12">
+        <v>0.00018834207430838229</v>
+      </c>
+      <c r="I12">
+        <v>0.79625946761649358</v>
+      </c>
+      <c r="J12">
+        <v>0.0022537261567263955</v>
+      </c>
+      <c r="K12">
+        <v>2.2239026277444056e-14</v>
+      </c>
+      <c r="L12">
+        <v>0.00022209726078146672</v>
+      </c>
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.010694404138104199</v>
-      </c>
-      <c r="C9">
-        <v>0.012500631612411587</v>
-      </c>
-      <c r="D9">
-        <v>0.33732306583409138</v>
-      </c>
-      <c r="E9">
-        <v>0.010713721678517309</v>
-      </c>
-      <c r="F9">
-        <v>0.017267698435719573</v>
-      </c>
-      <c r="G9">
-        <v>0.010979213458662691</v>
-      </c>
-      <c r="H9">
-        <v>0.011333491073593915</v>
-      </c>
-      <c r="I9">
-        <v>0.3611815531747225</v>
-      </c>
-      <c r="J9">
-        <v>0.018967151176602352</v>
-      </c>
-      <c r="K9">
-        <v>0.19569426496920964</v>
-      </c>
-      <c r="L9">
-        <v>0.013344804448365048</v>
-      </c>
-      <c r="M9">
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.010002544263684996</v>
+      </c>
+      <c r="C13">
+        <v>0.12586117770574093</v>
+      </c>
+      <c r="D13">
+        <v>0.018788667569418667</v>
+      </c>
+      <c r="E13">
+        <v>0.010051012089546533</v>
+      </c>
+      <c r="F13">
+        <v>0.023888963726100994</v>
+      </c>
+      <c r="G13">
+        <v>0.010740737161835963</v>
+      </c>
+      <c r="H13">
+        <v>0.0097702667383981808</v>
+      </c>
+      <c r="I13">
+        <v>0.30556359302768826</v>
+      </c>
+      <c r="J13">
+        <v>0.2206391614480416</v>
+      </c>
+      <c r="K13">
+        <v>0.19554554190685286</v>
+      </c>
+      <c r="L13">
+        <v>0.069148334362691188</v>
+      </c>
+      <c r="M13">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.0064278733134471916</v>
-      </c>
-      <c r="C10">
-        <v>0.015564491955174228</v>
-      </c>
-      <c r="D10">
-        <v>0.013699252578551455</v>
-      </c>
-      <c r="E10">
-        <v>6.4814482521427814e-06</v>
-      </c>
-      <c r="F10">
-        <v>0.0012248835632982164</v>
-      </c>
-      <c r="G10">
-        <v>0.012421388869438318</v>
-      </c>
-      <c r="H10">
-        <v>0.033349112386332737</v>
-      </c>
-      <c r="I10">
-        <v>0.00099751124439390981</v>
-      </c>
-      <c r="J10">
-        <v>0.91608271438001254</v>
-      </c>
-      <c r="K10">
-        <v>3.3423603061654635e-14</v>
-      </c>
-      <c r="L10">
-        <v>0.00022629026106566497</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.012680182115991069</v>
+      </c>
+      <c r="C14">
+        <v>0.14557954954231719</v>
+      </c>
+      <c r="D14">
+        <v>0.021427168877401336</v>
+      </c>
+      <c r="E14">
+        <v>0.01233194710177267</v>
+      </c>
+      <c r="F14">
+        <v>0.024649588890491871</v>
+      </c>
+      <c r="G14">
+        <v>0.013822339471089462</v>
+      </c>
+      <c r="H14">
+        <v>0.010594357270294577</v>
+      </c>
+      <c r="I14">
+        <v>0.080202541299783672</v>
+      </c>
+      <c r="J14">
+        <v>0.25888255784880387</v>
+      </c>
+      <c r="K14">
+        <v>0.36727031725218684</v>
+      </c>
+      <c r="L14">
+        <v>0.052559450329867363</v>
+      </c>
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>8.0692902512906388e-05</v>
-      </c>
-      <c r="C11">
-        <v>0.0010754423606656649</v>
-      </c>
-      <c r="D11">
-        <v>0.78689612543992205</v>
-      </c>
-      <c r="E11">
-        <v>2.7571833338616887e-05</v>
-      </c>
-      <c r="F11">
-        <v>0.024019187490283613</v>
-      </c>
-      <c r="G11">
-        <v>1.1619263938118664e-05</v>
-      </c>
-      <c r="H11">
-        <v>0.00066944336998736728</v>
-      </c>
-      <c r="I11">
-        <v>0.02517949596739847</v>
-      </c>
-      <c r="J11">
-        <v>0.13215780872109717</v>
-      </c>
-      <c r="K11">
-        <v>2.6646510154336893e-14</v>
-      </c>
-      <c r="L11">
-        <v>0.0298826126508294</v>
-      </c>
-      <c r="M11">
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.00016440461379233778</v>
+      </c>
+      <c r="C15">
+        <v>0.0024960607797860856</v>
+      </c>
+      <c r="D15">
+        <v>0.27649680398231075</v>
+      </c>
+      <c r="E15">
+        <v>0.014490292816455339</v>
+      </c>
+      <c r="F15">
+        <v>0.017524933489221635</v>
+      </c>
+      <c r="G15">
+        <v>0.047522002885586737</v>
+      </c>
+      <c r="H15">
+        <v>0.0001371736796257419</v>
+      </c>
+      <c r="I15">
+        <v>0.63916936949270098</v>
+      </c>
+      <c r="J15">
+        <v>0.0015119818694784464</v>
+      </c>
+      <c r="K15">
+        <v>2.2257356432267308e-14</v>
+      </c>
+      <c r="L15">
+        <v>0.00048697639101970904</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.90341432871705241</v>
+      </c>
+      <c r="C16">
+        <v>0.022781971850180951</v>
+      </c>
+      <c r="D16">
+        <v>0.0032223563718139186</v>
+      </c>
+      <c r="E16">
+        <v>0.00066193161762493811</v>
+      </c>
+      <c r="F16">
+        <v>0.0025136221041488775</v>
+      </c>
+      <c r="G16">
+        <v>0.014901128922547122</v>
+      </c>
+      <c r="H16">
+        <v>0.011343446175351714</v>
+      </c>
+      <c r="I16">
+        <v>0.03966947804496096</v>
+      </c>
+      <c r="J16">
+        <v>0.0013238224872889651</v>
+      </c>
+      <c r="K16">
+        <v>2.2249437820174887e-14</v>
+      </c>
+      <c r="L16">
+        <v>0.00016791370900782064</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>3.3901505862650684e-05</v>
+      </c>
+      <c r="C17">
+        <v>0.0010688079178041644</v>
+      </c>
+      <c r="D17">
+        <v>0.91973428561748172</v>
+      </c>
+      <c r="E17">
+        <v>1.024005981079375e-05</v>
+      </c>
+      <c r="F17">
+        <v>0.017436448848357201</v>
+      </c>
+      <c r="G17">
+        <v>0.00030868977180317412</v>
+      </c>
+      <c r="H17">
+        <v>0.0014005880718189734</v>
+      </c>
+      <c r="I17">
+        <v>0.03376673770277798</v>
+      </c>
+      <c r="J17">
+        <v>0.0069154531125299448</v>
+      </c>
+      <c r="K17">
+        <v>3.1779483757369562e-14</v>
+      </c>
+      <c r="L17">
+        <v>0.019324847391721644</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.7029039334369374e-05</v>
-      </c>
-      <c r="C12">
-        <v>0.0010917491036445859</v>
-      </c>
-      <c r="D12">
-        <v>0.7631962984671038</v>
-      </c>
-      <c r="E12">
-        <v>6.9544691757502202e-05</v>
-      </c>
-      <c r="F12">
-        <v>0.016148993420125265</v>
-      </c>
-      <c r="G12">
-        <v>5.2018367222081566e-06</v>
-      </c>
-      <c r="H12">
-        <v>0.00029353388983819505</v>
-      </c>
-      <c r="I12">
-        <v>0.020760757250732079</v>
-      </c>
-      <c r="J12">
-        <v>0.17865195352361449</v>
-      </c>
-      <c r="K12">
-        <v>2.2212021503446789e-14</v>
-      </c>
-      <c r="L12">
-        <v>0.019744938777105293</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.00017258088101054322</v>
-      </c>
-      <c r="C13">
-        <v>0.0064865946760095322</v>
-      </c>
-      <c r="D13">
-        <v>0.1451431348689308</v>
-      </c>
-      <c r="E13">
-        <v>0.015712023196807028</v>
-      </c>
-      <c r="F13">
-        <v>0.01678677712080005</v>
-      </c>
-      <c r="G13">
-        <v>0.025638262576234361</v>
-      </c>
-      <c r="H13">
-        <v>0.00012733776986847899</v>
-      </c>
-      <c r="I13">
-        <v>0.78713040268367451</v>
-      </c>
-      <c r="J13">
-        <v>0.0024062415648680919</v>
-      </c>
-      <c r="K13">
-        <v>2.224163775704937e-14</v>
-      </c>
-      <c r="L13">
-        <v>0.00039664466177441254</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.0022702042810693133</v>
-      </c>
-      <c r="C14">
-        <v>0.013253796191462336</v>
-      </c>
-      <c r="D14">
-        <v>0.092927175181277785</v>
-      </c>
-      <c r="E14">
-        <v>0.018441093491242254</v>
-      </c>
-      <c r="F14">
-        <v>0.021771234910062845</v>
-      </c>
-      <c r="G14">
-        <v>0.052412862836553338</v>
-      </c>
-      <c r="H14">
-        <v>0.00018834207430838229</v>
-      </c>
-      <c r="I14">
-        <v>0.79625946761649358</v>
-      </c>
-      <c r="J14">
-        <v>0.0022537261567263955</v>
-      </c>
-      <c r="K14">
-        <v>2.2239026277444056e-14</v>
-      </c>
-      <c r="L14">
-        <v>0.00022209726078146672</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.010002544263684996</v>
-      </c>
-      <c r="C15">
-        <v>0.12586117770574093</v>
-      </c>
-      <c r="D15">
-        <v>0.018788667569418667</v>
-      </c>
-      <c r="E15">
-        <v>0.010051012089546533</v>
-      </c>
-      <c r="F15">
-        <v>0.023888963726100994</v>
-      </c>
-      <c r="G15">
-        <v>0.010740737161835963</v>
-      </c>
-      <c r="H15">
-        <v>0.0097702667383981808</v>
-      </c>
-      <c r="I15">
-        <v>0.30556359302768826</v>
-      </c>
-      <c r="J15">
-        <v>0.2206391614480416</v>
-      </c>
-      <c r="K15">
-        <v>0.19554554190685286</v>
-      </c>
-      <c r="L15">
-        <v>0.069148334362691188</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.012680182115991069</v>
-      </c>
-      <c r="C16">
-        <v>0.14557954954231719</v>
-      </c>
-      <c r="D16">
-        <v>0.021427168877401336</v>
-      </c>
-      <c r="E16">
-        <v>0.01233194710177267</v>
-      </c>
-      <c r="F16">
-        <v>0.024649588890491871</v>
-      </c>
-      <c r="G16">
-        <v>0.013822339471089462</v>
-      </c>
-      <c r="H16">
-        <v>0.010594357270294577</v>
-      </c>
-      <c r="I16">
-        <v>0.080202541299783672</v>
-      </c>
-      <c r="J16">
-        <v>0.25888255784880387</v>
-      </c>
-      <c r="K16">
-        <v>0.36727031725218684</v>
-      </c>
-      <c r="L16">
-        <v>0.052559450329867363</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.00016440461379233778</v>
-      </c>
-      <c r="C17">
-        <v>0.0024960607797860856</v>
-      </c>
-      <c r="D17">
-        <v>0.27649680398231075</v>
-      </c>
-      <c r="E17">
-        <v>0.014490292816455339</v>
-      </c>
-      <c r="F17">
-        <v>0.017524933489221635</v>
-      </c>
-      <c r="G17">
-        <v>0.047522002885586737</v>
-      </c>
-      <c r="H17">
-        <v>0.0001371736796257419</v>
-      </c>
-      <c r="I17">
-        <v>0.63916936949270098</v>
-      </c>
-      <c r="J17">
-        <v>0.0015119818694784464</v>
-      </c>
-      <c r="K17">
-        <v>2.2257356432267308e-14</v>
-      </c>
-      <c r="L17">
-        <v>0.00048697639101970904</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.00013483629676468425</v>
+        <v>0.80890997313899804</v>
       </c>
       <c r="C18">
-        <v>0.0037253495275608897</v>
+        <v>0.051882370271165615</v>
       </c>
       <c r="D18">
-        <v>0.19163091957626618</v>
+        <v>0.010863185335941727</v>
       </c>
       <c r="E18">
-        <v>0.017097081586202462</v>
+        <v>0.0037879968270834916</v>
       </c>
       <c r="F18">
-        <v>0.015836691794063436</v>
+        <v>0.0053072745813252439</v>
       </c>
       <c r="G18">
-        <v>0.031928884300270632</v>
+        <v>0.01088552085525497</v>
       </c>
       <c r="H18">
-        <v>0.0001411823129049979</v>
+        <v>0.067638523484246746</v>
       </c>
       <c r="I18">
-        <v>0.73588522165638992</v>
+        <v>0.027190992034433939</v>
       </c>
       <c r="J18">
-        <v>0.0030056463816487142</v>
+        <v>0.013428017495681477</v>
       </c>
       <c r="K18">
-        <v>2.2234977725719791e-14</v>
+        <v>2.5148725785508872e-14</v>
       </c>
       <c r="L18">
-        <v>0.00061418656790587268</v>
+        <v>0.00010614597584392842</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.90341432871705241</v>
+        <v>0.90549114803394759</v>
       </c>
       <c r="C19">
-        <v>0.022781971850180951</v>
+        <v>0.033575173403578781</v>
       </c>
       <c r="D19">
-        <v>0.0032223563718139186</v>
+        <v>0.004934392416831055</v>
       </c>
       <c r="E19">
-        <v>0.00066193161762493811</v>
+        <v>0.00040244457506380171</v>
       </c>
       <c r="F19">
-        <v>0.0025136221041488775</v>
+        <v>0.0030091586223133797</v>
       </c>
       <c r="G19">
-        <v>0.014901128922547122</v>
+        <v>0.0034503902996112275</v>
       </c>
       <c r="H19">
-        <v>0.011343446175351714</v>
+        <v>0.0055899613457114474</v>
       </c>
       <c r="I19">
-        <v>0.03966947804496096</v>
+        <v>0.037156443181977236</v>
       </c>
       <c r="J19">
-        <v>0.0013238224872889651</v>
+        <v>0.0060392696563578499</v>
       </c>
       <c r="K19">
-        <v>2.2249437820174887e-14</v>
+        <v>2.2237215822944406e-14</v>
       </c>
       <c r="L19">
-        <v>0.00016791370900782064</v>
+        <v>0.00035161846458521496</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>3.3901505862650684e-05</v>
+        <v>0.33407014132998819</v>
       </c>
       <c r="C20">
-        <v>0.0010688079178041644</v>
+        <v>0.016251921772265546</v>
       </c>
       <c r="D20">
-        <v>0.91973428561748172</v>
+        <v>0.018554375910902053</v>
       </c>
       <c r="E20">
-        <v>1.024005981079375e-05</v>
+        <v>0.20669327123780457</v>
       </c>
       <c r="F20">
-        <v>0.017436448848357201</v>
+        <v>0.017032022966303437</v>
       </c>
       <c r="G20">
-        <v>0.00030868977180317412</v>
+        <v>0.013757088291259517</v>
       </c>
       <c r="H20">
-        <v>0.0014005880718189734</v>
+        <v>0.059997134166889642</v>
       </c>
       <c r="I20">
-        <v>0.03376673770277798</v>
+        <v>0.044236211786869033</v>
       </c>
       <c r="J20">
-        <v>0.0069154531125299448</v>
+        <v>0.022276924311138386</v>
       </c>
       <c r="K20">
-        <v>3.1779483757369562e-14</v>
+        <v>0.25715404750803744</v>
       </c>
       <c r="L20">
-        <v>0.019324847391721644</v>
+        <v>0.009976860718542287</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.80890997313899804</v>
+        <v>9.8701599941156652e-05</v>
       </c>
       <c r="C21">
-        <v>0.051882370271165615</v>
+        <v>0.010436547950081898</v>
       </c>
       <c r="D21">
-        <v>0.010863185335941727</v>
+        <v>0.052311423931721716</v>
       </c>
       <c r="E21">
-        <v>0.0037879968270834916</v>
+        <v>0.00074502652775521505</v>
       </c>
       <c r="F21">
-        <v>0.0053072745813252439</v>
+        <v>0.014953877361757488</v>
       </c>
       <c r="G21">
-        <v>0.01088552085525497</v>
+        <v>2.1297906391474093e-05</v>
       </c>
       <c r="H21">
-        <v>0.067638523484246746</v>
+        <v>0.00040939017257358502</v>
       </c>
       <c r="I21">
-        <v>0.027190992034433939</v>
+        <v>0.002898980515751277</v>
       </c>
       <c r="J21">
-        <v>0.013428017495681477</v>
+        <v>0.86704264925226437</v>
       </c>
       <c r="K21">
-        <v>2.5148725785508872e-14</v>
+        <v>2.2220851530936102e-14</v>
       </c>
       <c r="L21">
-        <v>0.00010614597584392842</v>
+        <v>0.051082104781739586</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.90549114803394759</v>
+        <v>0.71572845520205652</v>
       </c>
       <c r="C22">
-        <v>0.033575173403578781</v>
+        <v>0.046998513838415489</v>
       </c>
       <c r="D22">
-        <v>0.004934392416831055</v>
+        <v>0.019542940850790599</v>
       </c>
       <c r="E22">
-        <v>0.00040244457506380171</v>
+        <v>0.011212397340942978</v>
       </c>
       <c r="F22">
-        <v>0.0030091586223133797</v>
+        <v>0.012232791249552051</v>
       </c>
       <c r="G22">
-        <v>0.0034503902996112275</v>
+        <v>0.020675098381004214</v>
       </c>
       <c r="H22">
-        <v>0.0055899613457114474</v>
+        <v>0.026381536625154314</v>
       </c>
       <c r="I22">
-        <v>0.037156443181977236</v>
+        <v>0.030914045197528155</v>
       </c>
       <c r="J22">
-        <v>0.0060392696563578499</v>
+        <v>0.01684885019659927</v>
       </c>
       <c r="K22">
-        <v>2.2237215822944406e-14</v>
+        <v>0.090490813120798805</v>
       </c>
       <c r="L22">
-        <v>0.00035161846458521496</v>
+        <v>0.0089745579971576474</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.33407014132998819</v>
+        <v>1.1454116316347737e-05</v>
       </c>
       <c r="C23">
-        <v>0.016251921772265546</v>
+        <v>0.0012774702144839054</v>
       </c>
       <c r="D23">
-        <v>0.018554375910902053</v>
+        <v>0.91396959264630673</v>
       </c>
       <c r="E23">
-        <v>0.20669327123780457</v>
+        <v>9.2822569354225146e-06</v>
       </c>
       <c r="F23">
-        <v>0.017032022966303437</v>
+        <v>0.014524707332651276</v>
       </c>
       <c r="G23">
-        <v>0.013757088291259517</v>
+        <v>9.2743169438221296e-05</v>
       </c>
       <c r="H23">
-        <v>0.059997134166889642</v>
+        <v>0.0010516667910477396</v>
       </c>
       <c r="I23">
-        <v>0.044236211786869033</v>
+        <v>0.062728484878902924</v>
       </c>
       <c r="J23">
-        <v>0.022276924311138386</v>
+        <v>0.0033376743667904397</v>
       </c>
       <c r="K23">
-        <v>0.25715404750803744</v>
+        <v>2.4760656140007108e-14</v>
       </c>
       <c r="L23">
-        <v>0.009976860718542287</v>
+        <v>0.0029969242271021741</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>9.8701599941156652e-05</v>
+        <v>9.5475829434218577e-05</v>
       </c>
       <c r="C24">
-        <v>0.010436547950081898</v>
+        <v>0.023237321226053279</v>
       </c>
       <c r="D24">
-        <v>0.052311423931721716</v>
+        <v>0.10734699749213078</v>
       </c>
       <c r="E24">
-        <v>0.00074502652775521505</v>
+        <v>0.002005221450135106</v>
       </c>
       <c r="F24">
-        <v>0.014953877361757488</v>
+        <v>0.018499545282600022</v>
       </c>
       <c r="G24">
-        <v>2.1297906391474093e-05</v>
+        <v>1.7128297928770216e-05</v>
       </c>
       <c r="H24">
-        <v>0.00040939017257358502</v>
+        <v>0.00037004764009320113</v>
       </c>
       <c r="I24">
-        <v>0.002898980515751277</v>
+        <v>0.0029162772212637323</v>
       </c>
       <c r="J24">
-        <v>0.86704264925226437</v>
+        <v>0.83717321707146586</v>
       </c>
       <c r="K24">
-        <v>2.2220851530936102e-14</v>
+        <v>2.2222871640284482e-14</v>
       </c>
       <c r="L24">
-        <v>0.051082104781739586</v>
+        <v>0.0083387684888728622</v>
       </c>
       <c r="M24">
         <v>9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.062211306131310873</v>
+        <v>9.7160000952495188e-05</v>
       </c>
       <c r="C25">
-        <v>0.015057645235232947</v>
+        <v>0.017342334300536801</v>
       </c>
       <c r="D25">
-        <v>0.10723970770275838</v>
+        <v>0.086859071722791087</v>
       </c>
       <c r="E25">
-        <v>0.089959004601054299</v>
+        <v>0.002830463303803351</v>
       </c>
       <c r="F25">
-        <v>0.024188147122310454</v>
+        <v>0.023024765402413824</v>
       </c>
       <c r="G25">
-        <v>0.056037341079074245</v>
+        <v>7.4345577150373414e-06</v>
       </c>
       <c r="H25">
-        <v>0.01513750830835468</v>
+        <v>0.00051358988505302474</v>
       </c>
       <c r="I25">
-        <v>0.032712439197997677</v>
+        <v>0.003901266406834282</v>
       </c>
       <c r="J25">
-        <v>0.020027774378366989</v>
+        <v>0.85982243940404635</v>
       </c>
       <c r="K25">
-        <v>0.56754526497791136</v>
+        <v>2.2215107377773301e-14</v>
       </c>
       <c r="L25">
-        <v>0.0098838612656280533</v>
+        <v>0.0056014750158314905</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.71572845520205652</v>
+        <v>8.6971197797888452e-05</v>
       </c>
       <c r="C26">
-        <v>0.046998513838415489</v>
+        <v>0.0017045621285163069</v>
       </c>
       <c r="D26">
-        <v>0.019542940850790599</v>
+        <v>0.7725343446730043</v>
       </c>
       <c r="E26">
-        <v>0.011212397340942978</v>
+        <v>1.3058729120536558e-05</v>
       </c>
       <c r="F26">
-        <v>0.012232791249552051</v>
+        <v>0.021182123596966713</v>
       </c>
       <c r="G26">
-        <v>0.020675098381004214</v>
+        <v>1.2737475549590504e-05</v>
       </c>
       <c r="H26">
-        <v>0.026381536625154314</v>
+        <v>0.00059047708878469916</v>
       </c>
       <c r="I26">
-        <v>0.030914045197528155</v>
+        <v>0.037595896073547116</v>
       </c>
       <c r="J26">
-        <v>0.01684885019659927</v>
+        <v>0.1537015976376557</v>
       </c>
       <c r="K26">
-        <v>0.090490813120798805</v>
+        <v>2.5619788870390178e-14</v>
       </c>
       <c r="L26">
-        <v>0.0089745579971576474</v>
+        <v>0.012578231399031282</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0.028942356259653232</v>
+        <v>4.624594368431014e-06</v>
       </c>
       <c r="C27">
-        <v>0.019692453094488166</v>
+        <v>0.00049854017247123121</v>
       </c>
       <c r="D27">
-        <v>0.08499495710747472</v>
+        <v>0.9498899615420342</v>
       </c>
       <c r="E27">
-        <v>0.018687137748886262</v>
+        <v>2.996010537145404e-06</v>
       </c>
       <c r="F27">
-        <v>0.020583871776570062</v>
+        <v>0.0065606791026164612</v>
       </c>
       <c r="G27">
-        <v>0.07041430464971854</v>
+        <v>0.00026576203309947407</v>
       </c>
       <c r="H27">
-        <v>0.00035941368548553991</v>
+        <v>0.00083512611185327951</v>
       </c>
       <c r="I27">
-        <v>0.75298271795910199</v>
+        <v>0.039820629045729423</v>
       </c>
       <c r="J27">
-        <v>0.0032447214993247199</v>
+        <v>0.00072788372038199432</v>
       </c>
       <c r="K27">
-        <v>2.2258411632739166e-14</v>
+        <v>2.2203112792379049e-14</v>
       </c>
       <c r="L27">
-        <v>9.806621927450008e-05</v>
+        <v>0.0013937976668861277</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>1.1454116316347737e-05</v>
+        <v>1.8083550725250938e-05</v>
       </c>
       <c r="C28">
-        <v>0.0012774702144839054</v>
+        <v>0.0011119314135485797</v>
       </c>
       <c r="D28">
-        <v>0.91396959264630673</v>
+        <v>0.90729717801913257</v>
       </c>
       <c r="E28">
-        <v>9.2822569354225146e-06</v>
+        <v>8.7163887212264019e-06</v>
       </c>
       <c r="F28">
-        <v>0.014524707332651276</v>
+        <v>0.013635149961007339</v>
       </c>
       <c r="G28">
-        <v>9.2743169438221296e-05</v>
+        <v>8.6435189963828544e-05</v>
       </c>
       <c r="H28">
-        <v>0.0010516667910477396</v>
+        <v>0.0010381570137786664</v>
       </c>
       <c r="I28">
-        <v>0.062728484878902924</v>
+        <v>0.064617555292263484</v>
       </c>
       <c r="J28">
-        <v>0.0033376743667904397</v>
+        <v>0.0071498894613083539</v>
       </c>
       <c r="K28">
-        <v>2.4760656140007108e-14</v>
+        <v>2.4879746296540254e-14</v>
       </c>
       <c r="L28">
-        <v>0.0029969242271021741</v>
+        <v>0.0050369037095258379</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>9.5475829434218577e-05</v>
+        <v>1.6705999377518911e-05</v>
       </c>
       <c r="C29">
-        <v>0.023237321226053279</v>
+        <v>0.0020189223612625887</v>
       </c>
       <c r="D29">
-        <v>0.10734699749213078</v>
+        <v>0.90743850434167661</v>
       </c>
       <c r="E29">
-        <v>0.002005221450135106</v>
+        <v>2.8214045139180406e-05</v>
       </c>
       <c r="F29">
-        <v>0.018499545282600022</v>
+        <v>0.0139275184847864</v>
       </c>
       <c r="G29">
-        <v>1.7128297928770216e-05</v>
+        <v>0.0005162875972031522</v>
       </c>
       <c r="H29">
-        <v>0.00037004764009320113</v>
+        <v>0.00093151869228008991</v>
       </c>
       <c r="I29">
-        <v>0.0029162772212637323</v>
+        <v>0.065454461769546418</v>
       </c>
       <c r="J29">
-        <v>0.83717321707146586</v>
+        <v>0.0056011253813506223</v>
       </c>
       <c r="K29">
-        <v>2.2222871640284482e-14</v>
+        <v>2.5176318473201344e-14</v>
       </c>
       <c r="L29">
-        <v>0.0083387684888728622</v>
+        <v>0.0040667413273521849</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>9.7160000952495188e-05</v>
+        <v>0.00017519174650923404</v>
       </c>
       <c r="C30">
-        <v>0.017342334300536801</v>
+        <v>0.0020546026962585274</v>
       </c>
       <c r="D30">
-        <v>0.086859071722791087</v>
+        <v>0.6774061944349512</v>
       </c>
       <c r="E30">
-        <v>0.002830463303803351</v>
+        <v>7.3671307860602184e-05</v>
       </c>
       <c r="F30">
-        <v>0.023024765402413824</v>
+        <v>0.03389933979072686</v>
       </c>
       <c r="G30">
-        <v>7.4345577150373414e-06</v>
+        <v>2.7169277213308031e-05</v>
       </c>
       <c r="H30">
-        <v>0.00051358988505302474</v>
+        <v>0.00076078821681207348</v>
       </c>
       <c r="I30">
-        <v>0.003901266406834282</v>
+        <v>0.029650610198016836</v>
       </c>
       <c r="J30">
-        <v>0.85982243940404635</v>
+        <v>0.22688691279553647</v>
       </c>
       <c r="K30">
-        <v>2.2215107377773301e-14</v>
+        <v>3.0414279509086292e-14</v>
       </c>
       <c r="L30">
-        <v>0.0056014750158314905</v>
+        <v>0.029065519536084508</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>8.6971197797888452e-05</v>
+        <v>0.0001655545845060078</v>
       </c>
       <c r="C31">
-        <v>0.0017045621285163069</v>
+        <v>0.0022490837168913516</v>
       </c>
       <c r="D31">
-        <v>0.7725343446730043</v>
+        <v>0.83148590796508404</v>
       </c>
       <c r="E31">
-        <v>1.3058729120536558e-05</v>
+        <v>3.9927898410995147e-05</v>
       </c>
       <c r="F31">
-        <v>0.021182123596966713</v>
+        <v>0.028832059481506835</v>
       </c>
       <c r="G31">
-        <v>1.2737475549590504e-05</v>
+        <v>8.1210102614816983e-05</v>
       </c>
       <c r="H31">
-        <v>0.00059047708878469916</v>
+        <v>0.0010386328941018753</v>
       </c>
       <c r="I31">
-        <v>0.037595896073547116</v>
+        <v>0.059053570467363523</v>
       </c>
       <c r="J31">
-        <v>0.1537015976376557</v>
+        <v>0.061058127012833627</v>
       </c>
       <c r="K31">
-        <v>2.5619788870390178e-14</v>
+        <v>3.4437527662050315e-14</v>
       </c>
       <c r="L31">
-        <v>0.012578231399031282</v>
+        <v>0.015995925876652592</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>4.624594368431014e-06</v>
+        <v>0.7385194919856648</v>
       </c>
       <c r="C32">
-        <v>0.00049854017247123121</v>
+        <v>0.080360295745265806</v>
       </c>
       <c r="D32">
-        <v>0.9498899615420342</v>
+        <v>0.026258140281221892</v>
       </c>
       <c r="E32">
-        <v>2.996010537145404e-06</v>
+        <v>0.0013775641121599536</v>
       </c>
       <c r="F32">
-        <v>0.0065606791026164612</v>
+        <v>0.0068328483081082324</v>
       </c>
       <c r="G32">
-        <v>0.00026576203309947407</v>
+        <v>0.0008923561890166982</v>
       </c>
       <c r="H32">
-        <v>0.00083512611185327951</v>
+        <v>0.0018697883171599663</v>
       </c>
       <c r="I32">
-        <v>0.039820629045729423</v>
+        <v>0.078803207678779658</v>
       </c>
       <c r="J32">
-        <v>0.00072788372038199432</v>
+        <v>0.060820232860629486</v>
       </c>
       <c r="K32">
-        <v>2.2203112792379049e-14</v>
+        <v>2.6448494267708515e-14</v>
       </c>
       <c r="L32">
-        <v>0.0013937976668861277</v>
+        <v>0.0042660745219668594</v>
       </c>
       <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>0.010093767663088315</v>
+      </c>
+      <c r="C33">
+        <v>0.023625821865123981</v>
+      </c>
+      <c r="D33">
+        <v>0.06679266934976115</v>
+      </c>
+      <c r="E33">
+        <v>0.038936158263256054</v>
+      </c>
+      <c r="F33">
+        <v>0.018679425520647917</v>
+      </c>
+      <c r="G33">
+        <v>0.0072335173623133417</v>
+      </c>
+      <c r="H33">
+        <v>0.0086331207298409457</v>
+      </c>
+      <c r="I33">
+        <v>0.026674264536393471</v>
+      </c>
+      <c r="J33">
+        <v>0.72370022707943849</v>
+      </c>
+      <c r="K33">
+        <v>0.065316115607357561</v>
+      </c>
+      <c r="L33">
+        <v>0.010314912022778906</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0.010994419871491436</v>
+      </c>
+      <c r="C34">
+        <v>0.012732266855357067</v>
+      </c>
+      <c r="D34">
+        <v>0.094354979103041567</v>
+      </c>
+      <c r="E34">
+        <v>0.011013825423877121</v>
+      </c>
+      <c r="F34">
+        <v>0.017168979869057806</v>
+      </c>
+      <c r="G34">
+        <v>0.011495069305936627</v>
+      </c>
+      <c r="H34">
+        <v>0.012217695234344413</v>
+      </c>
+      <c r="I34">
+        <v>0.61012753210797355</v>
+      </c>
+      <c r="J34">
+        <v>0.012165206332520573</v>
+      </c>
+      <c r="K34">
+        <v>0.19261914073850778</v>
+      </c>
+      <c r="L34">
+        <v>0.015110885157892035</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0.00027433434990913307</v>
+      </c>
+      <c r="C35">
+        <v>0.0054158207638152645</v>
+      </c>
+      <c r="D35">
+        <v>0.079544033600357791</v>
+      </c>
+      <c r="E35">
+        <v>0.001721961841694533</v>
+      </c>
+      <c r="F35">
+        <v>0.025927781878612277</v>
+      </c>
+      <c r="G35">
+        <v>1.388759213111837e-05</v>
+      </c>
+      <c r="H35">
+        <v>0.0011246172464014451</v>
+      </c>
+      <c r="I35">
+        <v>0.0067750363808505541</v>
+      </c>
+      <c r="J35">
+        <v>0.85476820807272536</v>
+      </c>
+      <c r="K35">
+        <v>2.4932015984993178e-14</v>
+      </c>
+      <c r="L35">
+        <v>0.024434318273477605</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0.0001180419270985322</v>
+      </c>
+      <c r="C36">
+        <v>0.020341438362487186</v>
+      </c>
+      <c r="D36">
+        <v>0.053787151169743176</v>
+      </c>
+      <c r="E36">
+        <v>0.031090866693566015</v>
+      </c>
+      <c r="F36">
+        <v>0.01332576201435438</v>
+      </c>
+      <c r="G36">
+        <v>1.2608006940627418e-05</v>
+      </c>
+      <c r="H36">
+        <v>0.00044243109388827315</v>
+      </c>
+      <c r="I36">
+        <v>0.010908569021915913</v>
+      </c>
+      <c r="J36">
+        <v>0.86582020901082801</v>
+      </c>
+      <c r="K36">
+        <v>2.2224993413824824e-14</v>
+      </c>
+      <c r="L36">
+        <v>0.0041529226991555528</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>0.00014401280061510151</v>
+      </c>
+      <c r="C37">
+        <v>0.011155454746593536</v>
+      </c>
+      <c r="D37">
+        <v>0.042165666022104815</v>
+      </c>
+      <c r="E37">
+        <v>0.0021080375766980783</v>
+      </c>
+      <c r="F37">
+        <v>0.012344188746216933</v>
+      </c>
+      <c r="G37">
+        <v>4.1899177395575641e-06</v>
+      </c>
+      <c r="H37">
+        <v>0.00060373209264269348</v>
+      </c>
+      <c r="I37">
+        <v>0.0027892709525667667</v>
+      </c>
+      <c r="J37">
+        <v>0.92000225904734101</v>
+      </c>
+      <c r="K37">
+        <v>2.2216431465491817e-14</v>
+      </c>
+      <c r="L37">
+        <v>0.0086831880974592868</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1.4811702712389857e-05</v>
+      </c>
+      <c r="C38">
+        <v>0.00099010698830411903</v>
+      </c>
+      <c r="D38">
+        <v>0.9374540654272564</v>
+      </c>
+      <c r="E38">
+        <v>6.6551757629297883e-06</v>
+      </c>
+      <c r="F38">
+        <v>0.011479842291630469</v>
+      </c>
+      <c r="G38">
+        <v>0.0001735240498682004</v>
+      </c>
+      <c r="H38">
+        <v>0.0011659436602536972</v>
+      </c>
+      <c r="I38">
+        <v>0.038156562445008917</v>
+      </c>
+      <c r="J38">
+        <v>0.0024610455332130503</v>
+      </c>
+      <c r="K38">
+        <v>2.6986230368543844e-14</v>
+      </c>
+      <c r="L38">
+        <v>0.0080974427259630118</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1.8083550725250938e-05</v>
-      </c>
-      <c r="C33">
-        <v>0.0011119314135485797</v>
-      </c>
-      <c r="D33">
-        <v>0.90729717801913257</v>
-      </c>
-      <c r="E33">
-        <v>8.7163887212264019e-06</v>
-      </c>
-      <c r="F33">
-        <v>0.013635149961007339</v>
-      </c>
-      <c r="G33">
-        <v>8.6435189963828544e-05</v>
-      </c>
-      <c r="H33">
-        <v>0.0010381570137786664</v>
-      </c>
-      <c r="I33">
-        <v>0.064617555292263484</v>
-      </c>
-      <c r="J33">
-        <v>0.0071498894613083539</v>
-      </c>
-      <c r="K33">
-        <v>2.4879746296540254e-14</v>
-      </c>
-      <c r="L33">
-        <v>0.0050369037095258379</v>
-      </c>
-      <c r="M33">
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>4.6274177722444432e-05</v>
+      </c>
+      <c r="C39">
+        <v>0.00134722971636671</v>
+      </c>
+      <c r="D39">
+        <v>0.95291067470539059</v>
+      </c>
+      <c r="E39">
+        <v>7.2572426281563062e-06</v>
+      </c>
+      <c r="F39">
+        <v>0.013855584751906005</v>
+      </c>
+      <c r="G39">
+        <v>0.00019760177896072757</v>
+      </c>
+      <c r="H39">
+        <v>0.00087505560149799292</v>
+      </c>
+      <c r="I39">
+        <v>0.012072627945558422</v>
+      </c>
+      <c r="J39">
+        <v>0.0046503051667568804</v>
+      </c>
+      <c r="K39">
+        <v>2.2906972231437779e-14</v>
+      </c>
+      <c r="L39">
+        <v>0.01403738891318926</v>
+      </c>
+      <c r="M39">
         <v>3</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1.6705999377518911e-05</v>
-      </c>
-      <c r="C34">
-        <v>0.0020189223612625887</v>
-      </c>
-      <c r="D34">
-        <v>0.90743850434167661</v>
-      </c>
-      <c r="E34">
-        <v>2.8214045139180406e-05</v>
-      </c>
-      <c r="F34">
-        <v>0.0139275184847864</v>
-      </c>
-      <c r="G34">
-        <v>0.0005162875972031522</v>
-      </c>
-      <c r="H34">
-        <v>0.00093151869228008991</v>
-      </c>
-      <c r="I34">
-        <v>0.065454461769546418</v>
-      </c>
-      <c r="J34">
-        <v>0.0056011253813506223</v>
-      </c>
-      <c r="K34">
-        <v>2.5176318473201344e-14</v>
-      </c>
-      <c r="L34">
-        <v>0.0040667413273521849</v>
-      </c>
-      <c r="M34">
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>1.5359981693086196e-05</v>
+      </c>
+      <c r="C40">
+        <v>0.00061119915365227893</v>
+      </c>
+      <c r="D40">
+        <v>0.95541214658492923</v>
+      </c>
+      <c r="E40">
+        <v>5.3611806254152375e-06</v>
+      </c>
+      <c r="F40">
+        <v>0.0090371072565577186</v>
+      </c>
+      <c r="G40">
+        <v>9.5089019576139602e-05</v>
+      </c>
+      <c r="H40">
+        <v>0.00095334612712886884</v>
+      </c>
+      <c r="I40">
+        <v>0.020857635088095367</v>
+      </c>
+      <c r="J40">
+        <v>0.0035963760940550754</v>
+      </c>
+      <c r="K40">
+        <v>2.2648500521510756e-14</v>
+      </c>
+      <c r="L40">
+        <v>0.0094163795136639524</v>
+      </c>
+      <c r="M40">
         <v>3</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0.00017519174650923404</v>
-      </c>
-      <c r="C35">
-        <v>0.0020546026962585274</v>
-      </c>
-      <c r="D35">
-        <v>0.6774061944349512</v>
-      </c>
-      <c r="E35">
-        <v>7.3671307860602184e-05</v>
-      </c>
-      <c r="F35">
-        <v>0.03389933979072686</v>
-      </c>
-      <c r="G35">
-        <v>2.7169277213308031e-05</v>
-      </c>
-      <c r="H35">
-        <v>0.00076078821681207348</v>
-      </c>
-      <c r="I35">
-        <v>0.029650610198016836</v>
-      </c>
-      <c r="J35">
-        <v>0.22688691279553647</v>
-      </c>
-      <c r="K35">
-        <v>3.0414279509086292e-14</v>
-      </c>
-      <c r="L35">
-        <v>0.029065519536084508</v>
-      </c>
-      <c r="M35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.0001655545845060078</v>
-      </c>
-      <c r="C36">
-        <v>0.0022490837168913516</v>
-      </c>
-      <c r="D36">
-        <v>0.83148590796508404</v>
-      </c>
-      <c r="E36">
-        <v>3.9927898410995147e-05</v>
-      </c>
-      <c r="F36">
-        <v>0.028832059481506835</v>
-      </c>
-      <c r="G36">
-        <v>8.1210102614816983e-05</v>
-      </c>
-      <c r="H36">
-        <v>0.0010386328941018753</v>
-      </c>
-      <c r="I36">
-        <v>0.059053570467363523</v>
-      </c>
-      <c r="J36">
-        <v>0.061058127012833627</v>
-      </c>
-      <c r="K36">
-        <v>3.4437527662050315e-14</v>
-      </c>
-      <c r="L36">
-        <v>0.015995925876652592</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0.7385194919856648</v>
-      </c>
-      <c r="C37">
-        <v>0.080360295745265806</v>
-      </c>
-      <c r="D37">
-        <v>0.026258140281221892</v>
-      </c>
-      <c r="E37">
-        <v>0.0013775641121599536</v>
-      </c>
-      <c r="F37">
-        <v>0.0068328483081082324</v>
-      </c>
-      <c r="G37">
-        <v>0.0008923561890166982</v>
-      </c>
-      <c r="H37">
-        <v>0.0018697883171599663</v>
-      </c>
-      <c r="I37">
-        <v>0.078803207678779658</v>
-      </c>
-      <c r="J37">
-        <v>0.060820232860629486</v>
-      </c>
-      <c r="K37">
-        <v>2.6448494267708515e-14</v>
-      </c>
-      <c r="L37">
-        <v>0.0042660745219668594</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.010093767663088315</v>
-      </c>
-      <c r="C38">
-        <v>0.023625821865123981</v>
-      </c>
-      <c r="D38">
-        <v>0.06679266934976115</v>
-      </c>
-      <c r="E38">
-        <v>0.038936158263256054</v>
-      </c>
-      <c r="F38">
-        <v>0.018679425520647917</v>
-      </c>
-      <c r="G38">
-        <v>0.0072335173623133417</v>
-      </c>
-      <c r="H38">
-        <v>0.0086331207298409457</v>
-      </c>
-      <c r="I38">
-        <v>0.026674264536393471</v>
-      </c>
-      <c r="J38">
-        <v>0.72370022707943849</v>
-      </c>
-      <c r="K38">
-        <v>0.065316115607357561</v>
-      </c>
-      <c r="L38">
-        <v>0.010314912022778906</v>
-      </c>
-      <c r="M38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.010994419871491436</v>
-      </c>
-      <c r="C39">
-        <v>0.012732266855357067</v>
-      </c>
-      <c r="D39">
-        <v>0.094354979103041567</v>
-      </c>
-      <c r="E39">
-        <v>0.011013825423877121</v>
-      </c>
-      <c r="F39">
-        <v>0.017168979869057806</v>
-      </c>
-      <c r="G39">
-        <v>0.011495069305936627</v>
-      </c>
-      <c r="H39">
-        <v>0.012217695234344413</v>
-      </c>
-      <c r="I39">
-        <v>0.61012753210797355</v>
-      </c>
-      <c r="J39">
-        <v>0.012165206332520573</v>
-      </c>
-      <c r="K39">
-        <v>0.19261914073850778</v>
-      </c>
-      <c r="L39">
-        <v>0.015110885157892035</v>
-      </c>
-      <c r="M39">
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>0.0014150936407583072</v>
+      </c>
+      <c r="C41">
+        <v>0.0037917497265986446</v>
+      </c>
+      <c r="D41">
+        <v>0.00061216884211068539</v>
+      </c>
+      <c r="E41">
+        <v>2.2863648795223898e-06</v>
+      </c>
+      <c r="F41">
+        <v>0.0059970349082555125</v>
+      </c>
+      <c r="G41">
+        <v>0.0011841068914537642</v>
+      </c>
+      <c r="H41">
+        <v>0.0002836453866896193</v>
+      </c>
+      <c r="I41">
+        <v>0.98398181730085921</v>
+      </c>
+      <c r="J41">
+        <v>0.0026529459398671228</v>
+      </c>
+      <c r="K41">
+        <v>2.2204394671731539e-14</v>
+      </c>
+      <c r="L41">
+        <v>7.915099850533084e-05</v>
+      </c>
+      <c r="M41">
         <v>8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.00027433434990913307</v>
-      </c>
-      <c r="C40">
-        <v>0.0054158207638152645</v>
-      </c>
-      <c r="D40">
-        <v>0.079544033600357791</v>
-      </c>
-      <c r="E40">
-        <v>0.001721961841694533</v>
-      </c>
-      <c r="F40">
-        <v>0.025927781878612277</v>
-      </c>
-      <c r="G40">
-        <v>1.388759213111837e-05</v>
-      </c>
-      <c r="H40">
-        <v>0.0011246172464014451</v>
-      </c>
-      <c r="I40">
-        <v>0.0067750363808505541</v>
-      </c>
-      <c r="J40">
-        <v>0.85476820807272536</v>
-      </c>
-      <c r="K40">
-        <v>2.4932015984993178e-14</v>
-      </c>
-      <c r="L40">
-        <v>0.024434318273477605</v>
-      </c>
-      <c r="M40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0.0001180419270985322</v>
-      </c>
-      <c r="C41">
-        <v>0.020341438362487186</v>
-      </c>
-      <c r="D41">
-        <v>0.053787151169743176</v>
-      </c>
-      <c r="E41">
-        <v>0.031090866693566015</v>
-      </c>
-      <c r="F41">
-        <v>0.01332576201435438</v>
-      </c>
-      <c r="G41">
-        <v>1.2608006940627418e-05</v>
-      </c>
-      <c r="H41">
-        <v>0.00044243109388827315</v>
-      </c>
-      <c r="I41">
-        <v>0.010908569021915913</v>
-      </c>
-      <c r="J41">
-        <v>0.86582020901082801</v>
-      </c>
-      <c r="K41">
-        <v>2.2224993413824824e-14</v>
-      </c>
-      <c r="L41">
-        <v>0.0041529226991555528</v>
-      </c>
-      <c r="M41">
-        <v>9</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00014401280061510151</v>
+        <v>0.011002823783594826</v>
       </c>
       <c r="C42">
-        <v>0.011155454746593536</v>
+        <v>0.012749619407870047</v>
       </c>
       <c r="D42">
-        <v>0.042165666022104815</v>
+        <v>0.12209202986767072</v>
       </c>
       <c r="E42">
-        <v>0.0021080375766980783</v>
+        <v>0.01102818237573145</v>
       </c>
       <c r="F42">
-        <v>0.012344188746216933</v>
+        <v>0.018524797906431637</v>
       </c>
       <c r="G42">
-        <v>4.1899177395575641e-06</v>
+        <v>0.011201917335900112</v>
       </c>
       <c r="H42">
-        <v>0.00060373209264269348</v>
+        <v>0.011700435617741853</v>
       </c>
       <c r="I42">
-        <v>0.0027892709525667667</v>
+        <v>0.3247958216029469</v>
       </c>
       <c r="J42">
-        <v>0.92000225904734101</v>
+        <v>0.014491478150119896</v>
       </c>
       <c r="K42">
-        <v>2.2216431465491817e-14</v>
+        <v>0.4412976281140123</v>
       </c>
       <c r="L42">
-        <v>0.0086831880974592868</v>
+        <v>0.021115265837980204</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>1.4811702712389857e-05</v>
+        <v>0.010618339198115967</v>
       </c>
       <c r="C43">
-        <v>0.00099010698830411903</v>
+        <v>0.036889793598653089</v>
       </c>
       <c r="D43">
-        <v>0.9374540654272564</v>
+        <v>0.15037870405011244</v>
       </c>
       <c r="E43">
-        <v>6.6551757629297883e-06</v>
+        <v>0.028467338649057618</v>
       </c>
       <c r="F43">
-        <v>0.011479842291630469</v>
+        <v>0.031225476354137475</v>
       </c>
       <c r="G43">
-        <v>0.0001735240498682004</v>
+        <v>0.010614007756518837</v>
       </c>
       <c r="H43">
-        <v>0.0011659436602536972</v>
+        <v>0.012067935815203861</v>
       </c>
       <c r="I43">
-        <v>0.038156562445008917</v>
+        <v>0.014288606709632517</v>
       </c>
       <c r="J43">
-        <v>0.0024610455332130503</v>
+        <v>0.28457360379444935</v>
       </c>
       <c r="K43">
-        <v>2.6986230368543844e-14</v>
+        <v>0.41019235363567286</v>
       </c>
       <c r="L43">
-        <v>0.0080974427259630118</v>
+        <v>0.010683840438446123</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>4.6274177722444432e-05</v>
+        <v>0.0014150936407583072</v>
       </c>
       <c r="C44">
-        <v>0.00134722971636671</v>
+        <v>0.0037917497265986446</v>
       </c>
       <c r="D44">
-        <v>0.95291067470539059</v>
+        <v>0.00061216884211068539</v>
       </c>
       <c r="E44">
-        <v>7.2572426281563062e-06</v>
+        <v>2.2863648795223898e-06</v>
       </c>
       <c r="F44">
-        <v>0.013855584751906005</v>
+        <v>0.0059970349082555125</v>
       </c>
       <c r="G44">
-        <v>0.00019760177896072757</v>
+        <v>0.0011841068914537642</v>
       </c>
       <c r="H44">
-        <v>0.00087505560149799292</v>
+        <v>0.0002836453866896193</v>
       </c>
       <c r="I44">
-        <v>0.012072627945558422</v>
+        <v>0.98398181730085921</v>
       </c>
       <c r="J44">
-        <v>0.0046503051667568804</v>
+        <v>0.0026529459398671228</v>
       </c>
       <c r="K44">
-        <v>2.2906972231437779e-14</v>
+        <v>2.2204394671731539e-14</v>
       </c>
       <c r="L44">
-        <v>0.01403738891318926</v>
+        <v>7.915099850533084e-05</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>1.5359981693086196e-05</v>
+        <v>0.00094269578683714135</v>
       </c>
       <c r="C45">
-        <v>0.00061119915365227893</v>
+        <v>0.0047704177999438853</v>
       </c>
       <c r="D45">
-        <v>0.95541214658492923</v>
+        <v>0.00077373516581806653</v>
       </c>
       <c r="E45">
-        <v>5.3611806254152375e-06</v>
+        <v>5.4666443052698956e-06</v>
       </c>
       <c r="F45">
-        <v>0.0090371072565577186</v>
+        <v>0.0061083213097112886</v>
       </c>
       <c r="G45">
-        <v>9.5089019576139602e-05</v>
+        <v>0.00055463510406880787</v>
       </c>
       <c r="H45">
-        <v>0.00095334612712886884</v>
+        <v>0.00024344368652803812</v>
       </c>
       <c r="I45">
-        <v>0.020857635088095367</v>
+        <v>0.98038942871760038</v>
       </c>
       <c r="J45">
-        <v>0.0035963760940550754</v>
+        <v>0.0059351430219043112</v>
       </c>
       <c r="K45">
-        <v>2.2648500521510756e-14</v>
+        <v>2.2205167689346468e-14</v>
       </c>
       <c r="L45">
-        <v>0.0094163795136639524</v>
+        <v>0.00027671276326053803</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0014150936407583072</v>
+        <v>0.011005683166918058</v>
       </c>
       <c r="C46">
-        <v>0.0037917497265986446</v>
+        <v>0.084959588970393324</v>
       </c>
       <c r="D46">
-        <v>0.00061216884211068539</v>
+        <v>0.04820464213337565</v>
       </c>
       <c r="E46">
-        <v>2.2863648795223898e-06</v>
+        <v>0.042838538114905053</v>
       </c>
       <c r="F46">
-        <v>0.0059970349082555125</v>
+        <v>0.02352530408263289</v>
       </c>
       <c r="G46">
-        <v>0.0011841068914537642</v>
+        <v>0.010471690135783437</v>
       </c>
       <c r="H46">
-        <v>0.0002836453866896193</v>
+        <v>0.013984630670020209</v>
       </c>
       <c r="I46">
-        <v>0.98398181730085921</v>
+        <v>0.018760581038198974</v>
       </c>
       <c r="J46">
-        <v>0.0026529459398671228</v>
+        <v>0.33006138910398686</v>
       </c>
       <c r="K46">
-        <v>2.2204394671731539e-14</v>
+        <v>0.40565910385825793</v>
       </c>
       <c r="L46">
-        <v>7.915099850533084e-05</v>
+        <v>0.010528848725527597</v>
       </c>
       <c r="M46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>0.0092486358987833098</v>
+      </c>
+      <c r="C47">
+        <v>0.014178365142855564</v>
+      </c>
+      <c r="D47">
+        <v>0.041502045905557304</v>
+      </c>
+      <c r="E47">
+        <v>0.009322770759238019</v>
+      </c>
+      <c r="F47">
+        <v>0.017153832504636989</v>
+      </c>
+      <c r="G47">
+        <v>0.0095804521863321595</v>
+      </c>
+      <c r="H47">
+        <v>0.010229173878998745</v>
+      </c>
+      <c r="I47">
+        <v>0.78412181887185173</v>
+      </c>
+      <c r="J47">
+        <v>0.011660922529267861</v>
+      </c>
+      <c r="K47">
+        <v>0.082034143544294474</v>
+      </c>
+      <c r="L47">
+        <v>0.010967838778183794</v>
+      </c>
+      <c r="M47">
         <v>8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0.011002823783594826</v>
-      </c>
-      <c r="C47">
-        <v>0.012749619407870047</v>
-      </c>
-      <c r="D47">
-        <v>0.12209202986767072</v>
-      </c>
-      <c r="E47">
-        <v>0.01102818237573145</v>
-      </c>
-      <c r="F47">
-        <v>0.018524797906431637</v>
-      </c>
-      <c r="G47">
-        <v>0.011201917335900112</v>
-      </c>
-      <c r="H47">
-        <v>0.011700435617741853</v>
-      </c>
-      <c r="I47">
-        <v>0.3247958216029469</v>
-      </c>
-      <c r="J47">
-        <v>0.014491478150119896</v>
-      </c>
-      <c r="K47">
-        <v>0.4412976281140123</v>
-      </c>
-      <c r="L47">
-        <v>0.021115265837980204</v>
-      </c>
-      <c r="M47">
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>0.011237037829932401</v>
+      </c>
+      <c r="C48">
+        <v>0.0133241058529673</v>
+      </c>
+      <c r="D48">
+        <v>0.09869693258164676</v>
+      </c>
+      <c r="E48">
+        <v>0.011254227677761261</v>
+      </c>
+      <c r="F48">
+        <v>0.017607555125539871</v>
+      </c>
+      <c r="G48">
+        <v>0.011507804104088561</v>
+      </c>
+      <c r="H48">
+        <v>0.012388361781278426</v>
+      </c>
+      <c r="I48">
+        <v>0.52087097926078696</v>
+      </c>
+      <c r="J48">
+        <v>0.012564517139827702</v>
+      </c>
+      <c r="K48">
+        <v>0.27527633324536982</v>
+      </c>
+      <c r="L48">
+        <v>0.015272145400801001</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>0.010260947608662002</v>
+      </c>
+      <c r="C49">
+        <v>0.012737230372692138</v>
+      </c>
+      <c r="D49">
+        <v>0.090160890113795245</v>
+      </c>
+      <c r="E49">
+        <v>0.010309728437840995</v>
+      </c>
+      <c r="F49">
+        <v>0.027331465830379802</v>
+      </c>
+      <c r="G49">
+        <v>0.010263532568757122</v>
+      </c>
+      <c r="H49">
+        <v>0.010525131890270404</v>
+      </c>
+      <c r="I49">
+        <v>0.11746598344774785</v>
+      </c>
+      <c r="J49">
+        <v>0.14236883680643614</v>
+      </c>
+      <c r="K49">
+        <v>0.49579406992045633</v>
+      </c>
+      <c r="L49">
+        <v>0.072782183002961937</v>
+      </c>
+      <c r="M49">
         <v>10</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>0.010618339198115967</v>
-      </c>
-      <c r="C48">
-        <v>0.036889793598653089</v>
-      </c>
-      <c r="D48">
-        <v>0.15037870405011244</v>
-      </c>
-      <c r="E48">
-        <v>0.028467338649057618</v>
-      </c>
-      <c r="F48">
-        <v>0.031225476354137475</v>
-      </c>
-      <c r="G48">
-        <v>0.010614007756518837</v>
-      </c>
-      <c r="H48">
-        <v>0.012067935815203861</v>
-      </c>
-      <c r="I48">
-        <v>0.014288606709632517</v>
-      </c>
-      <c r="J48">
-        <v>0.28457360379444935</v>
-      </c>
-      <c r="K48">
-        <v>0.41019235363567286</v>
-      </c>
-      <c r="L48">
-        <v>0.010683840438446123</v>
-      </c>
-      <c r="M48">
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>0.010490702419633624</v>
+      </c>
+      <c r="C50">
+        <v>0.015148665819461456</v>
+      </c>
+      <c r="D50">
+        <v>0.069302405055588281</v>
+      </c>
+      <c r="E50">
+        <v>0.0105854836861379</v>
+      </c>
+      <c r="F50">
+        <v>0.024303920921551252</v>
+      </c>
+      <c r="G50">
+        <v>0.010628061601379449</v>
+      </c>
+      <c r="H50">
+        <v>0.010791203795253309</v>
+      </c>
+      <c r="I50">
+        <v>0.28535377109488497</v>
+      </c>
+      <c r="J50">
+        <v>0.041305548858344594</v>
+      </c>
+      <c r="K50">
+        <v>0.46097986065976337</v>
+      </c>
+      <c r="L50">
+        <v>0.061110376088001718</v>
+      </c>
+      <c r="M50">
         <v>10</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0.0014150936407583072</v>
-      </c>
-      <c r="C49">
-        <v>0.0037917497265986446</v>
-      </c>
-      <c r="D49">
-        <v>0.00061216884211068539</v>
-      </c>
-      <c r="E49">
-        <v>2.2863648795223898e-06</v>
-      </c>
-      <c r="F49">
-        <v>0.0059970349082555125</v>
-      </c>
-      <c r="G49">
-        <v>0.0011841068914537642</v>
-      </c>
-      <c r="H49">
-        <v>0.0002836453866896193</v>
-      </c>
-      <c r="I49">
-        <v>0.98398181730085921</v>
-      </c>
-      <c r="J49">
-        <v>0.0026529459398671228</v>
-      </c>
-      <c r="K49">
-        <v>2.2204394671731539e-14</v>
-      </c>
-      <c r="L49">
-        <v>7.915099850533084e-05</v>
-      </c>
-      <c r="M49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>0.00094269578683714135</v>
-      </c>
-      <c r="C50">
-        <v>0.0047704177999438853</v>
-      </c>
-      <c r="D50">
-        <v>0.00077373516581806653</v>
-      </c>
-      <c r="E50">
-        <v>5.4666443052698956e-06</v>
-      </c>
-      <c r="F50">
-        <v>0.0061083213097112886</v>
-      </c>
-      <c r="G50">
-        <v>0.00055463510406880787</v>
-      </c>
-      <c r="H50">
-        <v>0.00024344368652803812</v>
-      </c>
-      <c r="I50">
-        <v>0.98038942871760038</v>
-      </c>
-      <c r="J50">
-        <v>0.0059351430219043112</v>
-      </c>
-      <c r="K50">
-        <v>2.2205167689346468e-14</v>
-      </c>
-      <c r="L50">
-        <v>0.00027671276326053803</v>
-      </c>
-      <c r="M50">
-        <v>8</v>
-      </c>
-    </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.011005683166918058</v>
+        <v>0.011193052913660493</v>
       </c>
       <c r="C51">
-        <v>0.084959588970393324</v>
+        <v>0.013313247755298815</v>
       </c>
       <c r="D51">
-        <v>0.04820464213337565</v>
+        <v>0.065786301768070016</v>
       </c>
       <c r="E51">
-        <v>0.042838538114905053</v>
+        <v>0.01120919273918972</v>
       </c>
       <c r="F51">
-        <v>0.02352530408263289</v>
+        <v>0.016573177936843281</v>
       </c>
       <c r="G51">
-        <v>0.010471690135783437</v>
+        <v>0.011369528683029782</v>
       </c>
       <c r="H51">
-        <v>0.013984630670020209</v>
+        <v>0.01191807865533912</v>
       </c>
       <c r="I51">
-        <v>0.018760581038198974</v>
+        <v>0.4516240667823514</v>
       </c>
       <c r="J51">
-        <v>0.33006138910398686</v>
+        <v>0.018339193899721322</v>
       </c>
       <c r="K51">
-        <v>0.40565910385825793</v>
+        <v>0.36992713020924201</v>
       </c>
       <c r="L51">
-        <v>0.010528848725527597</v>
+        <v>0.018747028657254142</v>
       </c>
       <c r="M51">
         <v>10</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.0092486358987833098</v>
+        <v>0.012908930410228066</v>
       </c>
       <c r="C52">
-        <v>0.014178365142855564</v>
+        <v>0.050627499935106401</v>
       </c>
       <c r="D52">
-        <v>0.041502045905557304</v>
+        <v>0.064205332445438607</v>
       </c>
       <c r="E52">
-        <v>0.009322770759238019</v>
+        <v>0.030003221876694547</v>
       </c>
       <c r="F52">
-        <v>0.017153832504636989</v>
+        <v>0.02480309617155415</v>
       </c>
       <c r="G52">
-        <v>0.0095804521863321595</v>
+        <v>0.010574983308394402</v>
       </c>
       <c r="H52">
-        <v>0.010229173878998745</v>
+        <v>0.015649684052477308</v>
       </c>
       <c r="I52">
-        <v>0.78412181887185173</v>
+        <v>0.020642322052996112</v>
       </c>
       <c r="J52">
-        <v>0.011660922529267861</v>
+        <v>0.3567184489383558</v>
       </c>
       <c r="K52">
-        <v>0.082034143544294474</v>
+        <v>0.40333342610645195</v>
       </c>
       <c r="L52">
-        <v>0.010967838778183794</v>
+        <v>0.010533054702302791</v>
       </c>
       <c r="M52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>0.010343135543663454</v>
+      </c>
+      <c r="C53">
+        <v>0.012662776482771795</v>
+      </c>
+      <c r="D53">
+        <v>0.1380085028437634</v>
+      </c>
+      <c r="E53">
+        <v>0.010431690140270648</v>
+      </c>
+      <c r="F53">
+        <v>0.023933448169427475</v>
+      </c>
+      <c r="G53">
+        <v>0.010467225529931493</v>
+      </c>
+      <c r="H53">
+        <v>0.010699737471434359</v>
+      </c>
+      <c r="I53">
+        <v>0.1317100576822369</v>
+      </c>
+      <c r="J53">
+        <v>0.052596697856509604</v>
+      </c>
+      <c r="K53">
+        <v>0.53099266329866157</v>
+      </c>
+      <c r="L53">
+        <v>0.068154064981329421</v>
+      </c>
+      <c r="M53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>3.8141849345132194e-07</v>
+      </c>
+      <c r="C54">
+        <v>0.0085512912636681628</v>
+      </c>
+      <c r="D54">
+        <v>0.12694636986104291</v>
+      </c>
+      <c r="E54">
+        <v>3.0920093518187472e-05</v>
+      </c>
+      <c r="F54">
+        <v>0.012199733893472526</v>
+      </c>
+      <c r="G54">
+        <v>0.00079665090736532002</v>
+      </c>
+      <c r="H54">
+        <v>0.0062475377090804637</v>
+      </c>
+      <c r="I54">
+        <v>0.84090268694842607</v>
+      </c>
+      <c r="J54">
+        <v>0.00225321251790511</v>
+      </c>
+      <c r="K54">
+        <v>5.4641172944202926e-14</v>
+      </c>
+      <c r="L54">
+        <v>0.0020712153869731475</v>
+      </c>
+      <c r="M54">
         <v>8</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0.011237037829932401</v>
-      </c>
-      <c r="C53">
-        <v>0.0133241058529673</v>
-      </c>
-      <c r="D53">
-        <v>0.09869693258164676</v>
-      </c>
-      <c r="E53">
-        <v>0.011254227677761261</v>
-      </c>
-      <c r="F53">
-        <v>0.017607555125539871</v>
-      </c>
-      <c r="G53">
-        <v>0.011507804104088561</v>
-      </c>
-      <c r="H53">
-        <v>0.012388361781278426</v>
-      </c>
-      <c r="I53">
-        <v>0.52087097926078696</v>
-      </c>
-      <c r="J53">
-        <v>0.012564517139827702</v>
-      </c>
-      <c r="K53">
-        <v>0.27527633324536982</v>
-      </c>
-      <c r="L53">
-        <v>0.015272145400801001</v>
-      </c>
-      <c r="M53">
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>0.0033560816727278104</v>
+      </c>
+      <c r="C55">
+        <v>0.0029996870430573069</v>
+      </c>
+      <c r="D55">
+        <v>0.00088339752496914418</v>
+      </c>
+      <c r="E55">
+        <v>4.5037061977751335e-06</v>
+      </c>
+      <c r="F55">
+        <v>0.0067917077010336783</v>
+      </c>
+      <c r="G55">
+        <v>0.0016344933243757941</v>
+      </c>
+      <c r="H55">
+        <v>0.0003864351920567799</v>
+      </c>
+      <c r="I55">
+        <v>0.98074531537705079</v>
+      </c>
+      <c r="J55">
+        <v>0.0030550425068848731</v>
+      </c>
+      <c r="K55">
+        <v>2.2204841212979885e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.00014333595162392224</v>
+      </c>
+      <c r="M55">
         <v>8</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0.010260947608662002</v>
-      </c>
-      <c r="C54">
-        <v>0.012737230372692138</v>
-      </c>
-      <c r="D54">
-        <v>0.090160890113795245</v>
-      </c>
-      <c r="E54">
-        <v>0.010309728437840995</v>
-      </c>
-      <c r="F54">
-        <v>0.027331465830379802</v>
-      </c>
-      <c r="G54">
-        <v>0.010263532568757122</v>
-      </c>
-      <c r="H54">
-        <v>0.010525131890270404</v>
-      </c>
-      <c r="I54">
-        <v>0.11746598344774785</v>
-      </c>
-      <c r="J54">
-        <v>0.14236883680643614</v>
-      </c>
-      <c r="K54">
-        <v>0.49579406992045633</v>
-      </c>
-      <c r="L54">
-        <v>0.072782183002961937</v>
-      </c>
-      <c r="M54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0.010490702419633624</v>
-      </c>
-      <c r="C55">
-        <v>0.015148665819461456</v>
-      </c>
-      <c r="D55">
-        <v>0.069302405055588281</v>
-      </c>
-      <c r="E55">
-        <v>0.0105854836861379</v>
-      </c>
-      <c r="F55">
-        <v>0.024303920921551252</v>
-      </c>
-      <c r="G55">
-        <v>0.010628061601379449</v>
-      </c>
-      <c r="H55">
-        <v>0.010791203795253309</v>
-      </c>
-      <c r="I55">
-        <v>0.28535377109488497</v>
-      </c>
-      <c r="J55">
-        <v>0.041305548858344594</v>
-      </c>
-      <c r="K55">
-        <v>0.46097986065976337</v>
-      </c>
-      <c r="L55">
-        <v>0.061110376088001718</v>
-      </c>
-      <c r="M55">
-        <v>10</v>
-      </c>
-    </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.011193052913660493</v>
+        <v>0.010870827856532303</v>
       </c>
       <c r="C56">
-        <v>0.013313247755298815</v>
+        <v>0.063289001388467853</v>
       </c>
       <c r="D56">
-        <v>0.065786301768070016</v>
+        <v>0.10457194376785847</v>
       </c>
       <c r="E56">
-        <v>0.01120919273918972</v>
+        <v>0.02216061093029743</v>
       </c>
       <c r="F56">
-        <v>0.016573177936843281</v>
+        <v>0.032563429361027206</v>
       </c>
       <c r="G56">
-        <v>0.011369528683029782</v>
+        <v>0.010472480670757232</v>
       </c>
       <c r="H56">
-        <v>0.01191807865533912</v>
+        <v>0.011770655769469248</v>
       </c>
       <c r="I56">
-        <v>0.4516240667823514</v>
+        <v>0.018442194169719893</v>
       </c>
       <c r="J56">
-        <v>0.018339193899721322</v>
+        <v>0.24456202606113789</v>
       </c>
       <c r="K56">
-        <v>0.36992713020924201</v>
+        <v>0.47077396866300392</v>
       </c>
       <c r="L56">
-        <v>0.018747028657254142</v>
+        <v>0.010522861361728553</v>
       </c>
       <c r="M56">
         <v>10</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.012908930410228066</v>
+        <v>0.010854264727916525</v>
       </c>
       <c r="C57">
-        <v>0.050627499935106401</v>
+        <v>0.034523191088914634</v>
       </c>
       <c r="D57">
-        <v>0.064205332445438607</v>
+        <v>0.14978231059489056</v>
       </c>
       <c r="E57">
-        <v>0.030003221876694547</v>
+        <v>0.05814514391947246</v>
       </c>
       <c r="F57">
-        <v>0.02480309617155415</v>
+        <v>0.037185599129918007</v>
       </c>
       <c r="G57">
-        <v>0.010574983308394402</v>
+        <v>0.01047246471189707</v>
       </c>
       <c r="H57">
-        <v>0.015649684052477308</v>
+        <v>0.012025830058430886</v>
       </c>
       <c r="I57">
-        <v>0.020642322052996112</v>
+        <v>0.016423710311013619</v>
       </c>
       <c r="J57">
-        <v>0.3567184489383558</v>
+        <v>0.09147954409344583</v>
       </c>
       <c r="K57">
-        <v>0.40333342610645195</v>
+        <v>0.56872852432656906</v>
       </c>
       <c r="L57">
-        <v>0.010533054702302791</v>
+        <v>0.010379417037531142</v>
       </c>
       <c r="M57">
         <v>10</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.010343135543663454</v>
+        <v>0.0014150936407583072</v>
       </c>
       <c r="C58">
-        <v>0.012662776482771795</v>
+        <v>0.0037917497265986446</v>
       </c>
       <c r="D58">
-        <v>0.1380085028437634</v>
+        <v>0.00061216884211068539</v>
       </c>
       <c r="E58">
-        <v>0.010431690140270648</v>
+        <v>2.2863648795223898e-06</v>
       </c>
       <c r="F58">
-        <v>0.023933448169427475</v>
+        <v>0.0059970349082555125</v>
       </c>
       <c r="G58">
-        <v>0.010467225529931493</v>
+        <v>0.0011841068914537642</v>
       </c>
       <c r="H58">
-        <v>0.010699737471434359</v>
+        <v>0.0002836453866896193</v>
       </c>
       <c r="I58">
-        <v>0.1317100576822369</v>
+        <v>0.98398181730085921</v>
       </c>
       <c r="J58">
-        <v>0.052596697856509604</v>
+        <v>0.0026529459398671228</v>
       </c>
       <c r="K58">
-        <v>0.53099266329866157</v>
+        <v>2.2204394671731539e-14</v>
       </c>
       <c r="L58">
-        <v>0.068154064981329421</v>
+        <v>7.915099850533084e-05</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
+      <c r="A59" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>3.8141849345132194e-07</v>
+        <v>0.010780637370824473</v>
       </c>
       <c r="C59">
-        <v>0.0085512912636681628</v>
+        <v>0.011911105872862834</v>
       </c>
       <c r="D59">
-        <v>0.12694636986104291</v>
+        <v>0.099404844755445324</v>
       </c>
       <c r="E59">
-        <v>3.0920093518187472e-05</v>
+        <v>0.010797268745821676</v>
       </c>
       <c r="F59">
-        <v>0.012199733893472526</v>
+        <v>0.016733829578391569</v>
       </c>
       <c r="G59">
-        <v>0.00079665090736532002</v>
+        <v>0.011237864376660148</v>
       </c>
       <c r="H59">
-        <v>0.0062475377090804637</v>
+        <v>0.012111677949721905</v>
       </c>
       <c r="I59">
-        <v>0.84090268694842607</v>
+        <v>0.63866245612500105</v>
       </c>
       <c r="J59">
-        <v>0.00225321251790511</v>
+        <v>0.01170976816088874</v>
       </c>
       <c r="K59">
-        <v>5.4641172944202926e-14</v>
+        <v>0.16277845889695111</v>
       </c>
       <c r="L59">
-        <v>0.0020712153869731475</v>
+        <v>0.013872088167431232</v>
       </c>
       <c r="M59">
         <v>8</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0033560816727278104</v>
+        <v>0.011151207036850765</v>
       </c>
       <c r="C60">
-        <v>0.0029996870430573069</v>
+        <v>0.013393471335495925</v>
       </c>
       <c r="D60">
-        <v>0.00088339752496914418</v>
+        <v>0.15216521208623851</v>
       </c>
       <c r="E60">
-        <v>4.5037061977751335e-06</v>
+        <v>0.011183756494896155</v>
       </c>
       <c r="F60">
-        <v>0.0067917077010336783</v>
+        <v>0.016328195423391315</v>
       </c>
       <c r="G60">
-        <v>0.0016344933243757941</v>
+        <v>0.011359620661721121</v>
       </c>
       <c r="H60">
-        <v>0.0003864351920567799</v>
+        <v>0.011897734989256888</v>
       </c>
       <c r="I60">
-        <v>0.98074531537705079</v>
+        <v>0.34172447405168821</v>
       </c>
       <c r="J60">
-        <v>0.0030550425068848731</v>
+        <v>0.013945411000758813</v>
       </c>
       <c r="K60">
-        <v>2.2204841212979885e-14</v>
+        <v>0.40356617242635751</v>
       </c>
       <c r="L60">
-        <v>0.00014333595162392224</v>
+        <v>0.013284744493344809</v>
       </c>
       <c r="M60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>0.0014150936407583072</v>
+      </c>
+      <c r="C61">
+        <v>0.0037917497265986446</v>
+      </c>
+      <c r="D61">
+        <v>0.00061216884211068539</v>
+      </c>
+      <c r="E61">
+        <v>2.2863648795223898e-06</v>
+      </c>
+      <c r="F61">
+        <v>0.0059970349082555125</v>
+      </c>
+      <c r="G61">
+        <v>0.0011841068914537642</v>
+      </c>
+      <c r="H61">
+        <v>0.0002836453866896193</v>
+      </c>
+      <c r="I61">
+        <v>0.98398181730085921</v>
+      </c>
+      <c r="J61">
+        <v>0.0026529459398671228</v>
+      </c>
+      <c r="K61">
+        <v>2.2204394671731539e-14</v>
+      </c>
+      <c r="L61">
+        <v>7.915099850533084e-05</v>
+      </c>
+      <c r="M61">
         <v>8</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>0.010870827856532303</v>
-      </c>
-      <c r="C61">
-        <v>0.063289001388467853</v>
-      </c>
-      <c r="D61">
-        <v>0.10457194376785847</v>
-      </c>
-      <c r="E61">
-        <v>0.02216061093029743</v>
-      </c>
-      <c r="F61">
-        <v>0.032563429361027206</v>
-      </c>
-      <c r="G61">
-        <v>0.010472480670757232</v>
-      </c>
-      <c r="H61">
-        <v>0.011770655769469248</v>
-      </c>
-      <c r="I61">
-        <v>0.018442194169719893</v>
-      </c>
-      <c r="J61">
-        <v>0.24456202606113789</v>
-      </c>
-      <c r="K61">
-        <v>0.47077396866300392</v>
-      </c>
-      <c r="L61">
-        <v>0.010522861361728553</v>
-      </c>
-      <c r="M61">
-        <v>10</v>
-      </c>
-    </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
+      <c r="A62" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.010854264727916525</v>
+        <v>0.011602593567621704</v>
       </c>
       <c r="C62">
-        <v>0.034523191088914634</v>
+        <v>0.043697182775545643</v>
       </c>
       <c r="D62">
-        <v>0.14978231059489056</v>
+        <v>0.18334465002578487</v>
       </c>
       <c r="E62">
-        <v>0.05814514391947246</v>
+        <v>0.023177374706279587</v>
       </c>
       <c r="F62">
-        <v>0.037185599129918007</v>
+        <v>0.035158750556277728</v>
       </c>
       <c r="G62">
-        <v>0.01047246471189707</v>
+        <v>0.010523540701216423</v>
       </c>
       <c r="H62">
-        <v>0.012025830058430886</v>
+        <v>0.012241648683527524</v>
       </c>
       <c r="I62">
-        <v>0.016423710311013619</v>
+        <v>0.018945290150244331</v>
       </c>
       <c r="J62">
-        <v>0.09147954409344583</v>
+        <v>0.13015766926817321</v>
       </c>
       <c r="K62">
-        <v>0.56872852432656906</v>
+        <v>0.5206803391274667</v>
       </c>
       <c r="L62">
-        <v>0.010379417037531142</v>
+        <v>0.010470960437862284</v>
       </c>
       <c r="M62">
         <v>10</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
+      <c r="A63" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0014150936407583072</v>
+        <v>0.013957159665695379</v>
       </c>
       <c r="C63">
-        <v>0.0037917497265986446</v>
+        <v>0.057379470228485961</v>
       </c>
       <c r="D63">
-        <v>0.00061216884211068539</v>
+        <v>0.18695004632273854</v>
       </c>
       <c r="E63">
-        <v>2.2863648795223898e-06</v>
+        <v>0.030593288830345431</v>
       </c>
       <c r="F63">
-        <v>0.0059970349082555125</v>
+        <v>0.030786521615182961</v>
       </c>
       <c r="G63">
-        <v>0.0011841068914537642</v>
+        <v>0.011645475577868807</v>
       </c>
       <c r="H63">
-        <v>0.0002836453866896193</v>
+        <v>0.013241926666649364</v>
       </c>
       <c r="I63">
-        <v>0.98398181730085921</v>
+        <v>0.022130590081491385</v>
       </c>
       <c r="J63">
-        <v>0.0026529459398671228</v>
+        <v>0.045995867298945246</v>
       </c>
       <c r="K63">
-        <v>2.2204394671731539e-14</v>
+        <v>0.57704519069987892</v>
       </c>
       <c r="L63">
-        <v>7.915099850533084e-05</v>
+        <v>0.010274463012718249</v>
       </c>
       <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>0.010676789136861771</v>
+      </c>
+      <c r="C64">
+        <v>0.040082611085626732</v>
+      </c>
+      <c r="D64">
+        <v>0.13069474977883191</v>
+      </c>
+      <c r="E64">
+        <v>0.031854812968826265</v>
+      </c>
+      <c r="F64">
+        <v>0.029363455841965053</v>
+      </c>
+      <c r="G64">
+        <v>0.01058230734631675</v>
+      </c>
+      <c r="H64">
+        <v>0.012770202894788876</v>
+      </c>
+      <c r="I64">
+        <v>0.015636636448847</v>
+      </c>
+      <c r="J64">
+        <v>0.18355326820450818</v>
+      </c>
+      <c r="K64">
+        <v>0.52428267707440901</v>
+      </c>
+      <c r="L64">
+        <v>0.01050248921901843</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>0.010528602005876924</v>
+      </c>
+      <c r="C65">
+        <v>0.013879645011555496</v>
+      </c>
+      <c r="D65">
+        <v>0.079267907323797543</v>
+      </c>
+      <c r="E65">
+        <v>0.010574206116408124</v>
+      </c>
+      <c r="F65">
+        <v>0.017929533736965753</v>
+      </c>
+      <c r="G65">
+        <v>0.012358875340771116</v>
+      </c>
+      <c r="H65">
+        <v>0.011634059977521528</v>
+      </c>
+      <c r="I65">
+        <v>0.66765048099465152</v>
+      </c>
+      <c r="J65">
+        <v>0.01179246249114531</v>
+      </c>
+      <c r="K65">
+        <v>0.1485280147372133</v>
+      </c>
+      <c r="L65">
+        <v>0.015856212264093401</v>
+      </c>
+      <c r="M65">
         <v>8</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>0.010780637370824473</v>
-      </c>
-      <c r="C64">
-        <v>0.011911105872862834</v>
-      </c>
-      <c r="D64">
-        <v>0.099404844755445324</v>
-      </c>
-      <c r="E64">
-        <v>0.010797268745821676</v>
-      </c>
-      <c r="F64">
-        <v>0.016733829578391569</v>
-      </c>
-      <c r="G64">
-        <v>0.011237864376660148</v>
-      </c>
-      <c r="H64">
-        <v>0.012111677949721905</v>
-      </c>
-      <c r="I64">
-        <v>0.63866245612500105</v>
-      </c>
-      <c r="J64">
-        <v>0.01170976816088874</v>
-      </c>
-      <c r="K64">
-        <v>0.16277845889695111</v>
-      </c>
-      <c r="L64">
-        <v>0.013872088167431232</v>
-      </c>
-      <c r="M64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>0.011151207036850765</v>
-      </c>
-      <c r="C65">
-        <v>0.013393471335495925</v>
-      </c>
-      <c r="D65">
-        <v>0.15216521208623851</v>
-      </c>
-      <c r="E65">
-        <v>0.011183756494896155</v>
-      </c>
-      <c r="F65">
-        <v>0.016328195423391315</v>
-      </c>
-      <c r="G65">
-        <v>0.011359620661721121</v>
-      </c>
-      <c r="H65">
-        <v>0.011897734989256888</v>
-      </c>
-      <c r="I65">
-        <v>0.34172447405168821</v>
-      </c>
-      <c r="J65">
-        <v>0.013945411000758813</v>
-      </c>
-      <c r="K65">
-        <v>0.40356617242635751</v>
-      </c>
-      <c r="L65">
-        <v>0.013284744493344809</v>
-      </c>
-      <c r="M65">
-        <v>10</v>
-      </c>
-    </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
+      <c r="A66" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B66">
         <v>0.0014150936407583072</v>
@@ -3098,172 +3102,172 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
+      <c r="A67" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.011602593567621704</v>
+        <v>0.010988025729044656</v>
       </c>
       <c r="C67">
-        <v>0.043697182775545643</v>
+        <v>0.064928057630759858</v>
       </c>
       <c r="D67">
-        <v>0.18334465002578487</v>
+        <v>0.13762051750914145</v>
       </c>
       <c r="E67">
-        <v>0.023177374706279587</v>
+        <v>0.035788682597480893</v>
       </c>
       <c r="F67">
-        <v>0.035158750556277728</v>
+        <v>0.025433565823489084</v>
       </c>
       <c r="G67">
-        <v>0.010523540701216423</v>
+        <v>0.010571010072637799</v>
       </c>
       <c r="H67">
-        <v>0.012241648683527524</v>
+        <v>0.01190233104710021</v>
       </c>
       <c r="I67">
-        <v>0.018945290150244331</v>
+        <v>0.01978791912109747</v>
       </c>
       <c r="J67">
-        <v>0.13015766926817321</v>
+        <v>0.19328363857704572</v>
       </c>
       <c r="K67">
-        <v>0.5206803391274667</v>
+        <v>0.47932606480133533</v>
       </c>
       <c r="L67">
-        <v>0.010470960437862284</v>
+        <v>0.010370187090867688</v>
       </c>
       <c r="M67">
         <v>10</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
+      <c r="A68" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.013957159665695379</v>
+        <v>0.0014150936407583072</v>
       </c>
       <c r="C68">
-        <v>0.057379470228485961</v>
+        <v>0.0037917497265986446</v>
       </c>
       <c r="D68">
-        <v>0.18695004632273854</v>
+        <v>0.00061216884211068539</v>
       </c>
       <c r="E68">
-        <v>0.030593288830345431</v>
+        <v>2.2863648795223898e-06</v>
       </c>
       <c r="F68">
-        <v>0.030786521615182961</v>
+        <v>0.0059970349082555125</v>
       </c>
       <c r="G68">
-        <v>0.011645475577868807</v>
+        <v>0.0011841068914537642</v>
       </c>
       <c r="H68">
-        <v>0.013241926666649364</v>
+        <v>0.0002836453866896193</v>
       </c>
       <c r="I68">
-        <v>0.022130590081491385</v>
+        <v>0.98398181730085921</v>
       </c>
       <c r="J68">
-        <v>0.045995867298945246</v>
+        <v>0.0026529459398671228</v>
       </c>
       <c r="K68">
-        <v>0.57704519069987892</v>
+        <v>2.2204394671731539e-14</v>
       </c>
       <c r="L68">
-        <v>0.010274463012718249</v>
+        <v>7.915099850533084e-05</v>
       </c>
       <c r="M68">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
+      <c r="A69" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.010676789136861771</v>
+        <v>0.012906586001862608</v>
       </c>
       <c r="C69">
-        <v>0.040082611085626732</v>
+        <v>0.079842319718542651</v>
       </c>
       <c r="D69">
-        <v>0.13069474977883191</v>
+        <v>0.12183158475869983</v>
       </c>
       <c r="E69">
-        <v>0.031854812968826265</v>
+        <v>0.032924122539579992</v>
       </c>
       <c r="F69">
-        <v>0.029363455841965053</v>
+        <v>0.024664479180992235</v>
       </c>
       <c r="G69">
-        <v>0.01058230734631675</v>
+        <v>0.010390282409228086</v>
       </c>
       <c r="H69">
-        <v>0.012770202894788876</v>
+        <v>0.013482281598542376</v>
       </c>
       <c r="I69">
-        <v>0.015636636448847</v>
+        <v>0.019749202614015117</v>
       </c>
       <c r="J69">
-        <v>0.18355326820450818</v>
+        <v>0.1363191724114618</v>
       </c>
       <c r="K69">
-        <v>0.52428267707440901</v>
+        <v>0.53766232729162711</v>
       </c>
       <c r="L69">
-        <v>0.01050248921901843</v>
+        <v>0.010227641475448131</v>
       </c>
       <c r="M69">
         <v>10</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
+      <c r="A70" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.010528602005876924</v>
+        <v>0.00094269578683714135</v>
       </c>
       <c r="C70">
-        <v>0.013879645011555496</v>
+        <v>0.0047704177999438853</v>
       </c>
       <c r="D70">
-        <v>0.079267907323797543</v>
+        <v>0.00077373516581806653</v>
       </c>
       <c r="E70">
-        <v>0.010574206116408124</v>
+        <v>5.4666443052698956e-06</v>
       </c>
       <c r="F70">
-        <v>0.017929533736965753</v>
+        <v>0.0061083213097112886</v>
       </c>
       <c r="G70">
-        <v>0.012358875340771116</v>
+        <v>0.00055463510406880787</v>
       </c>
       <c r="H70">
-        <v>0.011634059977521528</v>
+        <v>0.00024344368652803812</v>
       </c>
       <c r="I70">
-        <v>0.66765048099465152</v>
+        <v>0.98038942871760038</v>
       </c>
       <c r="J70">
-        <v>0.01179246249114531</v>
+        <v>0.0059351430219043112</v>
       </c>
       <c r="K70">
-        <v>0.1485280147372133</v>
+        <v>2.2205167689346468e-14</v>
       </c>
       <c r="L70">
-        <v>0.015856212264093401</v>
+        <v>0.00027671276326053803</v>
       </c>
       <c r="M70">
         <v>8</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
+      <c r="A71" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B71">
         <v>0.0014150936407583072</v>
@@ -3303,615 +3307,615 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
+      <c r="A72" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.010988025729044656</v>
+        <v>0.010774493814124658</v>
       </c>
       <c r="C72">
-        <v>0.064928057630759858</v>
+        <v>0.034848072433010933</v>
       </c>
       <c r="D72">
-        <v>0.13762051750914145</v>
+        <v>0.14538831288262241</v>
       </c>
       <c r="E72">
-        <v>0.035788682597480893</v>
+        <v>0.089799387213500656</v>
       </c>
       <c r="F72">
-        <v>0.025433565823489084</v>
+        <v>0.035240684455381623</v>
       </c>
       <c r="G72">
-        <v>0.010571010072637799</v>
+        <v>0.01064487703110361</v>
       </c>
       <c r="H72">
-        <v>0.01190233104710021</v>
+        <v>0.012904470471448406</v>
       </c>
       <c r="I72">
-        <v>0.01978791912109747</v>
+        <v>0.015428977882950909</v>
       </c>
       <c r="J72">
-        <v>0.19328363857704572</v>
+        <v>0.059117951345058158</v>
       </c>
       <c r="K72">
-        <v>0.47932606480133533</v>
+        <v>0.5754665424736306</v>
       </c>
       <c r="L72">
-        <v>0.010370187090867688</v>
+        <v>0.010386229997168026</v>
       </c>
       <c r="M72">
         <v>10</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
+      <c r="A73" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B73">
+        <v>0.010903179009461706</v>
+      </c>
+      <c r="C73">
+        <v>0.044960023667096886</v>
+      </c>
+      <c r="D73">
+        <v>0.039628531391745214</v>
+      </c>
+      <c r="E73">
+        <v>0.084414330943559851</v>
+      </c>
+      <c r="F73">
+        <v>0.021334752177656437</v>
+      </c>
+      <c r="G73">
+        <v>0.0105372365579454</v>
+      </c>
+      <c r="H73">
+        <v>0.016770011424897896</v>
+      </c>
+      <c r="I73">
+        <v>0.015087677733906967</v>
+      </c>
+      <c r="J73">
+        <v>0.20396395898590339</v>
+      </c>
+      <c r="K73">
+        <v>0.54191854631350567</v>
+      </c>
+      <c r="L73">
+        <v>0.01048175179432055</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
         <v>0.0014150936407583072</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>0.0037917497265986446</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>0.00061216884211068539</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>2.2863648795223898e-06</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>0.0059970349082555125</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>0.0011841068914537642</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>0.0002836453866896193</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>0.98398181730085921</v>
       </c>
-      <c r="J73">
+      <c r="J74">
         <v>0.0026529459398671228</v>
       </c>
-      <c r="K73">
+      <c r="K74">
         <v>2.2204394671731539e-14</v>
       </c>
-      <c r="L73">
+      <c r="L74">
         <v>7.915099850533084e-05</v>
       </c>
-      <c r="M73">
+      <c r="M74">
         <v>8</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>0.012906586001862608</v>
-      </c>
-      <c r="C74">
-        <v>0.079842319718542651</v>
-      </c>
-      <c r="D74">
-        <v>0.12183158475869983</v>
-      </c>
-      <c r="E74">
-        <v>0.032924122539579992</v>
-      </c>
-      <c r="F74">
-        <v>0.024664479180992235</v>
-      </c>
-      <c r="G74">
-        <v>0.010390282409228086</v>
-      </c>
-      <c r="H74">
-        <v>0.013482281598542376</v>
-      </c>
-      <c r="I74">
-        <v>0.019749202614015117</v>
-      </c>
-      <c r="J74">
-        <v>0.1363191724114618</v>
-      </c>
-      <c r="K74">
-        <v>0.53766232729162711</v>
-      </c>
-      <c r="L74">
-        <v>0.010227641475448131</v>
-      </c>
-      <c r="M74">
-        <v>10</v>
-      </c>
-    </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
+      <c r="A75" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.00094269578683714135</v>
+        <v>6.3890422016503896e-07</v>
       </c>
       <c r="C75">
-        <v>0.0047704177999438853</v>
+        <v>0.0062243848596871525</v>
       </c>
       <c r="D75">
-        <v>0.00077373516581806653</v>
+        <v>0.1131065971805276</v>
       </c>
       <c r="E75">
-        <v>5.4666443052698956e-06</v>
+        <v>6.8551503704988826e-05</v>
       </c>
       <c r="F75">
-        <v>0.0061083213097112886</v>
+        <v>0.013473247909969498</v>
       </c>
       <c r="G75">
-        <v>0.00055463510406880787</v>
+        <v>0.0013519594480247063</v>
       </c>
       <c r="H75">
-        <v>0.00024344368652803812</v>
+        <v>0.0038041612084130801</v>
       </c>
       <c r="I75">
-        <v>0.98038942871760038</v>
+        <v>0.85673515395375388</v>
       </c>
       <c r="J75">
-        <v>0.0059351430219043112</v>
+        <v>0.0018683664016156338</v>
       </c>
       <c r="K75">
-        <v>2.2205167689346468e-14</v>
+        <v>4.4124543333459168e-14</v>
       </c>
       <c r="L75">
-        <v>0.00027671276326053803</v>
+        <v>0.0033669386300390573</v>
       </c>
       <c r="M75">
         <v>8</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
+      <c r="A76" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0014150936407583072</v>
+        <v>0.0108372195171746</v>
       </c>
       <c r="C76">
-        <v>0.0037917497265986446</v>
+        <v>0.063500111328083586</v>
       </c>
       <c r="D76">
-        <v>0.00061216884211068539</v>
+        <v>0.10992994149170722</v>
       </c>
       <c r="E76">
-        <v>2.2863648795223898e-06</v>
+        <v>0.020330497316646049</v>
       </c>
       <c r="F76">
-        <v>0.0059970349082555125</v>
+        <v>0.024048229327956909</v>
       </c>
       <c r="G76">
-        <v>0.0011841068914537642</v>
+        <v>0.010622346629792636</v>
       </c>
       <c r="H76">
-        <v>0.0002836453866896193</v>
+        <v>0.013293869765632037</v>
       </c>
       <c r="I76">
-        <v>0.98398181730085921</v>
+        <v>0.015128065620144099</v>
       </c>
       <c r="J76">
-        <v>0.0026529459398671228</v>
+        <v>0.30319222280022989</v>
       </c>
       <c r="K76">
-        <v>2.2204394671731539e-14</v>
+        <v>0.4184619899570069</v>
       </c>
       <c r="L76">
-        <v>7.915099850533084e-05</v>
+        <v>0.010655506245626003</v>
       </c>
       <c r="M76">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
+      <c r="A77" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.010774493814124658</v>
+        <v>0.010578691411638891</v>
       </c>
       <c r="C77">
-        <v>0.034848072433010933</v>
+        <v>0.073112943523429272</v>
       </c>
       <c r="D77">
-        <v>0.14538831288262241</v>
+        <v>0.11577544149722381</v>
       </c>
       <c r="E77">
-        <v>0.089799387213500656</v>
+        <v>0.039933273275898448</v>
       </c>
       <c r="F77">
-        <v>0.035240684455381623</v>
+        <v>0.025275592169350661</v>
       </c>
       <c r="G77">
-        <v>0.01064487703110361</v>
+        <v>0.010926042585955838</v>
       </c>
       <c r="H77">
-        <v>0.012904470471448406</v>
+        <v>0.01380373382576267</v>
       </c>
       <c r="I77">
-        <v>0.015428977882950909</v>
+        <v>0.014380125287188851</v>
       </c>
       <c r="J77">
-        <v>0.059117951345058158</v>
+        <v>0.14589185924843232</v>
       </c>
       <c r="K77">
-        <v>0.5754665424736306</v>
+        <v>0.54002287183974429</v>
       </c>
       <c r="L77">
-        <v>0.010386229997168026</v>
+        <v>0.010299425335375017</v>
       </c>
       <c r="M77">
         <v>10</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
+      <c r="A78" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.010903179009461706</v>
+        <v>0.010971585373678846</v>
       </c>
       <c r="C78">
-        <v>0.044960023667096886</v>
+        <v>0.053001793198719206</v>
       </c>
       <c r="D78">
-        <v>0.039628531391745214</v>
+        <v>0.098428640792339817</v>
       </c>
       <c r="E78">
-        <v>0.084414330943559851</v>
+        <v>0.053824904643004295</v>
       </c>
       <c r="F78">
-        <v>0.021334752177656437</v>
+        <v>0.028917057857380673</v>
       </c>
       <c r="G78">
-        <v>0.0105372365579454</v>
+        <v>0.010329439420330799</v>
       </c>
       <c r="H78">
-        <v>0.016770011424897896</v>
+        <v>0.013397012219953543</v>
       </c>
       <c r="I78">
-        <v>0.015087677733906967</v>
+        <v>0.017177411677387736</v>
       </c>
       <c r="J78">
-        <v>0.20396395898590339</v>
+        <v>0.17383545311018175</v>
       </c>
       <c r="K78">
-        <v>0.54191854631350567</v>
+        <v>0.52985087811525411</v>
       </c>
       <c r="L78">
-        <v>0.01048175179432055</v>
+        <v>0.010265823591769203</v>
       </c>
       <c r="M78">
         <v>10</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
+      <c r="A79" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B79">
+        <v>0.0105512132727262</v>
+      </c>
+      <c r="C79">
+        <v>0.090953709460701082</v>
+      </c>
+      <c r="D79">
+        <v>0.043131536844470623</v>
+      </c>
+      <c r="E79">
+        <v>0.085844360166852471</v>
+      </c>
+      <c r="F79">
+        <v>0.017812828645508004</v>
+      </c>
+      <c r="G79">
+        <v>0.010493498839992654</v>
+      </c>
+      <c r="H79">
+        <v>0.016944599946285974</v>
+      </c>
+      <c r="I79">
+        <v>0.018225321599490193</v>
+      </c>
+      <c r="J79">
+        <v>0.32439627550019523</v>
+      </c>
+      <c r="K79">
+        <v>0.37126850722031551</v>
+      </c>
+      <c r="L79">
+        <v>0.010378148503461835</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
         <v>0.0014150936407583072</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>0.0037917497265986446</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>0.00061216884211068539</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>2.2863648795223898e-06</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>0.0059970349082555125</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>0.0011841068914537642</v>
       </c>
-      <c r="H79">
+      <c r="H80">
         <v>0.0002836453866896193</v>
       </c>
-      <c r="I79">
+      <c r="I80">
         <v>0.98398181730085921</v>
       </c>
-      <c r="J79">
+      <c r="J80">
         <v>0.0026529459398671228</v>
       </c>
-      <c r="K79">
+      <c r="K80">
         <v>2.2204394671731539e-14</v>
       </c>
-      <c r="L79">
+      <c r="L80">
         <v>7.915099850533084e-05</v>
-      </c>
-      <c r="M79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>6.3890422016503896e-07</v>
-      </c>
-      <c r="C80">
-        <v>0.0062243848596871525</v>
-      </c>
-      <c r="D80">
-        <v>0.1131065971805276</v>
-      </c>
-      <c r="E80">
-        <v>6.8551503704988826e-05</v>
-      </c>
-      <c r="F80">
-        <v>0.013473247909969498</v>
-      </c>
-      <c r="G80">
-        <v>0.0013519594480247063</v>
-      </c>
-      <c r="H80">
-        <v>0.0038041612084130801</v>
-      </c>
-      <c r="I80">
-        <v>0.85673515395375388</v>
-      </c>
-      <c r="J80">
-        <v>0.0018683664016156338</v>
-      </c>
-      <c r="K80">
-        <v>4.4124543333459168e-14</v>
-      </c>
-      <c r="L80">
-        <v>0.0033669386300390573</v>
       </c>
       <c r="M80">
         <v>8</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
+      <c r="A81" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0108372195171746</v>
+        <v>0.0014150936407583072</v>
       </c>
       <c r="C81">
-        <v>0.063500111328083586</v>
+        <v>0.0037917497265986446</v>
       </c>
       <c r="D81">
-        <v>0.10992994149170722</v>
+        <v>0.00061216884211068539</v>
       </c>
       <c r="E81">
-        <v>0.020330497316646049</v>
+        <v>2.2863648795223898e-06</v>
       </c>
       <c r="F81">
-        <v>0.024048229327956909</v>
+        <v>0.0059970349082555125</v>
       </c>
       <c r="G81">
-        <v>0.010622346629792636</v>
+        <v>0.0011841068914537642</v>
       </c>
       <c r="H81">
-        <v>0.013293869765632037</v>
+        <v>0.0002836453866896193</v>
       </c>
       <c r="I81">
-        <v>0.015128065620144099</v>
+        <v>0.98398181730085921</v>
       </c>
       <c r="J81">
-        <v>0.30319222280022989</v>
+        <v>0.0026529459398671228</v>
       </c>
       <c r="K81">
-        <v>0.4184619899570069</v>
+        <v>2.2204394671731539e-14</v>
       </c>
       <c r="L81">
-        <v>0.010655506245626003</v>
+        <v>7.915099850533084e-05</v>
       </c>
       <c r="M81">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.010578691411638891</v>
+        <v>0.012906586001862608</v>
       </c>
       <c r="C82">
-        <v>0.073112943523429272</v>
+        <v>0.079842319718542651</v>
       </c>
       <c r="D82">
-        <v>0.11577544149722381</v>
+        <v>0.12183158475869983</v>
       </c>
       <c r="E82">
-        <v>0.039933273275898448</v>
+        <v>0.032924122539579992</v>
       </c>
       <c r="F82">
-        <v>0.025275592169350661</v>
+        <v>0.024664479180992235</v>
       </c>
       <c r="G82">
-        <v>0.010926042585955838</v>
+        <v>0.010390282409228086</v>
       </c>
       <c r="H82">
-        <v>0.01380373382576267</v>
+        <v>0.013482281598542376</v>
       </c>
       <c r="I82">
-        <v>0.014380125287188851</v>
+        <v>0.019749202614015117</v>
       </c>
       <c r="J82">
-        <v>0.14589185924843232</v>
+        <v>0.1363191724114618</v>
       </c>
       <c r="K82">
-        <v>0.54002287183974429</v>
+        <v>0.53766232729162711</v>
       </c>
       <c r="L82">
-        <v>0.010299425335375017</v>
+        <v>0.010227641475448131</v>
       </c>
       <c r="M82">
         <v>10</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
+      <c r="A83" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.010971585373678846</v>
+        <v>0.010780637370824473</v>
       </c>
       <c r="C83">
-        <v>0.053001793198719206</v>
+        <v>0.011911105872862834</v>
       </c>
       <c r="D83">
-        <v>0.098428640792339817</v>
+        <v>0.099404844755445324</v>
       </c>
       <c r="E83">
-        <v>0.053824904643004295</v>
+        <v>0.010797268745821676</v>
       </c>
       <c r="F83">
-        <v>0.028917057857380673</v>
+        <v>0.016733829578391569</v>
       </c>
       <c r="G83">
-        <v>0.010329439420330799</v>
+        <v>0.011237864376660148</v>
       </c>
       <c r="H83">
-        <v>0.013397012219953543</v>
+        <v>0.012111677949721905</v>
       </c>
       <c r="I83">
-        <v>0.017177411677387736</v>
+        <v>0.63866245612500105</v>
       </c>
       <c r="J83">
-        <v>0.17383545311018175</v>
+        <v>0.01170976816088874</v>
       </c>
       <c r="K83">
-        <v>0.52985087811525411</v>
+        <v>0.16277845889695111</v>
       </c>
       <c r="L83">
-        <v>0.010265823591769203</v>
+        <v>0.013872088167431232</v>
       </c>
       <c r="M83">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
+      <c r="A84" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0105512132727262</v>
+        <v>0.020580649853889126</v>
       </c>
       <c r="C84">
-        <v>0.090953709460701082</v>
+        <v>0.0051181066559346285</v>
       </c>
       <c r="D84">
-        <v>0.043131536844470623</v>
+        <v>0.0023263094418586945</v>
       </c>
       <c r="E84">
-        <v>0.085844360166852471</v>
+        <v>5.7582525424659136e-05</v>
       </c>
       <c r="F84">
-        <v>0.017812828645508004</v>
+        <v>0.0092689462843025625</v>
       </c>
       <c r="G84">
-        <v>0.010493498839992654</v>
+        <v>0.0010556824183887358</v>
       </c>
       <c r="H84">
-        <v>0.016944599946285974</v>
+        <v>0.00083297992642862931</v>
       </c>
       <c r="I84">
-        <v>0.018225321599490193</v>
+        <v>0.95300027873355875</v>
       </c>
       <c r="J84">
-        <v>0.32439627550019523</v>
+        <v>0.0068211482655860592</v>
       </c>
       <c r="K84">
-        <v>0.37126850722031551</v>
+        <v>2.2206378688096319e-14</v>
       </c>
       <c r="L84">
-        <v>0.010378148503461835</v>
+        <v>0.00093831589460584112</v>
       </c>
       <c r="M84">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.0014150936407583072</v>
+        <v>0.0011602533374495772</v>
       </c>
       <c r="C85">
-        <v>0.0037917497265986446</v>
+        <v>0.01489643984120931</v>
       </c>
       <c r="D85">
-        <v>0.00061216884211068539</v>
+        <v>0.086074310789432215</v>
       </c>
       <c r="E85">
-        <v>2.2863648795223898e-06</v>
+        <v>0.01797901719406382</v>
       </c>
       <c r="F85">
-        <v>0.0059970349082555125</v>
+        <v>0.019322847106677137</v>
       </c>
       <c r="G85">
-        <v>0.0011841068914537642</v>
+        <v>0.047750429749701943</v>
       </c>
       <c r="H85">
-        <v>0.0002836453866896193</v>
+        <v>0.00015381838456340172</v>
       </c>
       <c r="I85">
-        <v>0.98398181730085921</v>
+        <v>0.80773405085187355</v>
       </c>
       <c r="J85">
-        <v>0.0026529459398671228</v>
+        <v>0.0045138851165011625</v>
       </c>
       <c r="K85">
-        <v>2.2204394671731539e-14</v>
+        <v>2.2232555413537485e-14</v>
       </c>
       <c r="L85">
-        <v>7.915099850533084e-05</v>
+        <v>0.00041494762850554387</v>
       </c>
       <c r="M85">
         <v>8</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
+      <c r="A86" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0014150936407583072</v>
+        <v>0.0039766930741372448</v>
       </c>
       <c r="C86">
-        <v>0.0037917497265986446</v>
+        <v>0.011951889671612318</v>
       </c>
       <c r="D86">
-        <v>0.00061216884211068539</v>
+        <v>0.094597142909682755</v>
       </c>
       <c r="E86">
-        <v>2.2863648795223898e-06</v>
+        <v>0.0086588496509631858</v>
       </c>
       <c r="F86">
-        <v>0.0059970349082555125</v>
+        <v>0.017946456917793351</v>
       </c>
       <c r="G86">
-        <v>0.0011841068914537642</v>
+        <v>0.036392951786667349</v>
       </c>
       <c r="H86">
-        <v>0.0002836453866896193</v>
+        <v>0.0001699966444026197</v>
       </c>
       <c r="I86">
-        <v>0.98398181730085921</v>
+        <v>0.82298808298437209</v>
       </c>
       <c r="J86">
-        <v>0.0026529459398671228</v>
+        <v>0.0031015559424031323</v>
       </c>
       <c r="K86">
-        <v>2.2204394671731539e-14</v>
+        <v>2.2247089913088635e-14</v>
       </c>
       <c r="L86">
-        <v>7.915099850533084e-05</v>
+        <v>0.00021638041794365019</v>
       </c>
       <c r="M86">
         <v>8</v>

--- a/outputs-HGR-r202/test-f__Lactobacillaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Lactobacillaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Row</t>
   </si>
@@ -40,12 +40,21 @@
     <t>even_MAG-GUT32654.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33836.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3427.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT3435.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT34540.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43936.fa</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>even_MAG-GUT76426.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80232.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT83501.fa</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>even_MAG-GUT90441.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90671.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90682.fa</t>
   </si>
   <si>
@@ -182,6 +197,9 @@
   </si>
   <si>
     <t>even_MAG-GUT90730.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90775.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90941.fa</t>
@@ -286,7 +304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M69"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -309,40 +327,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -637,40 +655,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.010002544263684996</v>
+        <v>0.00017258088101054322</v>
       </c>
       <c r="C9">
-        <v>0.12586117770574093</v>
+        <v>0.0064865946760095322</v>
       </c>
       <c r="D9">
-        <v>0.018788667569418667</v>
+        <v>0.1451431348689308</v>
       </c>
       <c r="E9">
-        <v>0.010051012089546533</v>
+        <v>0.015712023196807028</v>
       </c>
       <c r="F9">
-        <v>0.023888963726100994</v>
+        <v>0.01678677712080005</v>
       </c>
       <c r="G9">
-        <v>0.010740737161835963</v>
+        <v>0.025638262576234361</v>
       </c>
       <c r="H9">
-        <v>0.0097702667383981808</v>
+        <v>0.00012733776986847899</v>
       </c>
       <c r="I9">
-        <v>0.30556359302768826</v>
+        <v>0.78713040268367451</v>
       </c>
       <c r="J9">
-        <v>0.2206391614480416</v>
+        <v>0.0024062415648680919</v>
       </c>
       <c r="K9">
-        <v>0.19554554190685286</v>
+        <v>2.224163775704937e-14</v>
       </c>
       <c r="L9">
-        <v>0.069148334362691188</v>
+        <v>0.00039664466177441254</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -678,40 +696,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.012680182115991069</v>
+        <v>0.0022702042810693133</v>
       </c>
       <c r="C10">
-        <v>0.14557954954231719</v>
+        <v>0.013253796191462336</v>
       </c>
       <c r="D10">
-        <v>0.021427168877401336</v>
+        <v>0.092927175181277785</v>
       </c>
       <c r="E10">
-        <v>0.01233194710177267</v>
+        <v>0.018441093491242254</v>
       </c>
       <c r="F10">
-        <v>0.024649588890491871</v>
+        <v>0.021771234910062845</v>
       </c>
       <c r="G10">
-        <v>0.013822339471089462</v>
+        <v>0.052412862836553338</v>
       </c>
       <c r="H10">
-        <v>0.010594357270294577</v>
+        <v>0.00018834207430838229</v>
       </c>
       <c r="I10">
-        <v>0.080202541299783672</v>
+        <v>0.79625946761649358</v>
       </c>
       <c r="J10">
-        <v>0.25888255784880387</v>
+        <v>0.0022537261567263955</v>
       </c>
       <c r="K10">
-        <v>0.36727031725218684</v>
+        <v>2.2239026277444056e-14</v>
       </c>
       <c r="L10">
-        <v>0.052559450329867363</v>
+        <v>0.00022209726078146672</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -719,40 +737,40 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.3901505862650684e-05</v>
+        <v>0.010002544263684996</v>
       </c>
       <c r="C11">
-        <v>0.0010688079178041644</v>
+        <v>0.12586117770574093</v>
       </c>
       <c r="D11">
-        <v>0.91973428561748172</v>
+        <v>0.018788667569418667</v>
       </c>
       <c r="E11">
-        <v>1.024005981079375e-05</v>
+        <v>0.010051012089546533</v>
       </c>
       <c r="F11">
-        <v>0.017436448848357201</v>
+        <v>0.023888963726100994</v>
       </c>
       <c r="G11">
-        <v>0.00030868977180317412</v>
+        <v>0.010740737161835963</v>
       </c>
       <c r="H11">
-        <v>0.0014005880718189734</v>
+        <v>0.0097702667383981808</v>
       </c>
       <c r="I11">
-        <v>0.03376673770277798</v>
+        <v>0.30556359302768826</v>
       </c>
       <c r="J11">
-        <v>0.0069154531125299448</v>
+        <v>0.2206391614480416</v>
       </c>
       <c r="K11">
-        <v>3.1779483757369562e-14</v>
+        <v>0.19554554190685286</v>
       </c>
       <c r="L11">
-        <v>0.019324847391721644</v>
+        <v>0.069148334362691188</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -760,40 +778,40 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.8701599941156652e-05</v>
+        <v>0.012680182115991069</v>
       </c>
       <c r="C12">
-        <v>0.010436547950081898</v>
+        <v>0.14557954954231719</v>
       </c>
       <c r="D12">
-        <v>0.052311423931721716</v>
+        <v>0.021427168877401336</v>
       </c>
       <c r="E12">
-        <v>0.00074502652775521505</v>
+        <v>0.01233194710177267</v>
       </c>
       <c r="F12">
-        <v>0.014953877361757488</v>
+        <v>0.024649588890491871</v>
       </c>
       <c r="G12">
-        <v>2.1297906391474093e-05</v>
+        <v>0.013822339471089462</v>
       </c>
       <c r="H12">
-        <v>0.00040939017257358502</v>
+        <v>0.010594357270294577</v>
       </c>
       <c r="I12">
-        <v>0.002898980515751277</v>
+        <v>0.080202541299783672</v>
       </c>
       <c r="J12">
-        <v>0.86704264925226437</v>
+        <v>0.25888255784880387</v>
       </c>
       <c r="K12">
-        <v>2.2220851530936102e-14</v>
+        <v>0.36727031725218684</v>
       </c>
       <c r="L12">
-        <v>0.051082104781739586</v>
+        <v>0.052559450329867363</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -801,40 +819,40 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.038205340587508095</v>
+        <v>0.00016440461379233778</v>
       </c>
       <c r="C13">
-        <v>0.088172813017461715</v>
+        <v>0.0024960607797860856</v>
       </c>
       <c r="D13">
-        <v>0.019363223675376375</v>
+        <v>0.27649680398231075</v>
       </c>
       <c r="E13">
-        <v>0.082338185935555586</v>
+        <v>0.014490292816455339</v>
       </c>
       <c r="F13">
-        <v>0.022603861319984726</v>
+        <v>0.017524933489221635</v>
       </c>
       <c r="G13">
-        <v>0.010948782633634101</v>
+        <v>0.047522002885586737</v>
       </c>
       <c r="H13">
-        <v>0.010765367377624872</v>
+        <v>0.0001371736796257419</v>
       </c>
       <c r="I13">
-        <v>0.13743387536793017</v>
+        <v>0.63916936949270098</v>
       </c>
       <c r="J13">
-        <v>0.13012039584981849</v>
+        <v>0.0015119818694784464</v>
       </c>
       <c r="K13">
-        <v>0.44414918167300682</v>
+        <v>2.2257356432267308e-14</v>
       </c>
       <c r="L13">
-        <v>0.015898972562099069</v>
+        <v>0.00048697639101970904</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -842,40 +860,40 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.062211306131310873</v>
+        <v>3.3901505862650684e-05</v>
       </c>
       <c r="C14">
-        <v>0.015057645235232947</v>
+        <v>0.0010688079178041644</v>
       </c>
       <c r="D14">
-        <v>0.10723970770275838</v>
+        <v>0.91973428561748172</v>
       </c>
       <c r="E14">
-        <v>0.089959004601054299</v>
+        <v>1.024005981079375e-05</v>
       </c>
       <c r="F14">
-        <v>0.024188147122310454</v>
+        <v>0.017436448848357201</v>
       </c>
       <c r="G14">
-        <v>0.056037341079074245</v>
+        <v>0.00030868977180317412</v>
       </c>
       <c r="H14">
-        <v>0.01513750830835468</v>
+        <v>0.0014005880718189734</v>
       </c>
       <c r="I14">
-        <v>0.032712439197997677</v>
+        <v>0.03376673770277798</v>
       </c>
       <c r="J14">
-        <v>0.020027774378366989</v>
+        <v>0.0069154531125299448</v>
       </c>
       <c r="K14">
-        <v>0.56754526497791136</v>
+        <v>3.1779483757369562e-14</v>
       </c>
       <c r="L14">
-        <v>0.0098838612656280533</v>
+        <v>0.019324847391721644</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -883,37 +901,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.012823274141884063</v>
+        <v>9.8701599941156652e-05</v>
       </c>
       <c r="C15">
-        <v>0.092330117880999651</v>
+        <v>0.010436547950081898</v>
       </c>
       <c r="D15">
-        <v>0.012681410605126495</v>
+        <v>0.052311423931721716</v>
       </c>
       <c r="E15">
-        <v>0.029387161466338116</v>
+        <v>0.00074502652775521505</v>
       </c>
       <c r="F15">
-        <v>0.020915857189324129</v>
+        <v>0.014953877361757488</v>
       </c>
       <c r="G15">
-        <v>0.0081017855894651627</v>
+        <v>2.1297906391474093e-05</v>
       </c>
       <c r="H15">
-        <v>0.0080379210765953862</v>
+        <v>0.00040939017257358502</v>
       </c>
       <c r="I15">
-        <v>0.060836208137622881</v>
+        <v>0.002898980515751277</v>
       </c>
       <c r="J15">
-        <v>0.58986985652418433</v>
+        <v>0.86704264925226437</v>
       </c>
       <c r="K15">
-        <v>0.09176516072411528</v>
+        <v>2.2220851530936102e-14</v>
       </c>
       <c r="L15">
-        <v>0.073251246664344585</v>
+        <v>0.051082104781739586</v>
       </c>
       <c r="M15">
         <v>9</v>
@@ -924,40 +942,40 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.1454116316347737e-05</v>
+        <v>0.038205340587508095</v>
       </c>
       <c r="C16">
-        <v>0.0012774702144839054</v>
+        <v>0.088172813017461715</v>
       </c>
       <c r="D16">
-        <v>0.91396959264630673</v>
+        <v>0.019363223675376375</v>
       </c>
       <c r="E16">
-        <v>9.2822569354225146e-06</v>
+        <v>0.082338185935555586</v>
       </c>
       <c r="F16">
-        <v>0.014524707332651276</v>
+        <v>0.022603861319984726</v>
       </c>
       <c r="G16">
-        <v>9.2743169438221296e-05</v>
+        <v>0.010948782633634101</v>
       </c>
       <c r="H16">
-        <v>0.0010516667910477396</v>
+        <v>0.010765367377624872</v>
       </c>
       <c r="I16">
-        <v>0.062728484878902924</v>
+        <v>0.13743387536793017</v>
       </c>
       <c r="J16">
-        <v>0.0033376743667904397</v>
+        <v>0.13012039584981849</v>
       </c>
       <c r="K16">
-        <v>2.4760656140007108e-14</v>
+        <v>0.44414918167300682</v>
       </c>
       <c r="L16">
-        <v>0.0029969242271021741</v>
+        <v>0.015898972562099069</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -965,40 +983,40 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.5475829434218577e-05</v>
+        <v>0.062211306131310873</v>
       </c>
       <c r="C17">
-        <v>0.023237321226053279</v>
+        <v>0.015057645235232947</v>
       </c>
       <c r="D17">
-        <v>0.10734699749213078</v>
+        <v>0.10723970770275838</v>
       </c>
       <c r="E17">
-        <v>0.002005221450135106</v>
+        <v>0.089959004601054299</v>
       </c>
       <c r="F17">
-        <v>0.018499545282600022</v>
+        <v>0.024188147122310454</v>
       </c>
       <c r="G17">
-        <v>1.7128297928770216e-05</v>
+        <v>0.056037341079074245</v>
       </c>
       <c r="H17">
-        <v>0.00037004764009320113</v>
+        <v>0.01513750830835468</v>
       </c>
       <c r="I17">
-        <v>0.0029162772212637323</v>
+        <v>0.032712439197997677</v>
       </c>
       <c r="J17">
-        <v>0.83717321707146586</v>
+        <v>0.020027774378366989</v>
       </c>
       <c r="K17">
-        <v>2.2222871640284482e-14</v>
+        <v>0.56754526497791136</v>
       </c>
       <c r="L17">
-        <v>0.0083387684888728622</v>
+        <v>0.0098838612656280533</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1006,37 +1024,37 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.7160000952495188e-05</v>
+        <v>0.012823274141884063</v>
       </c>
       <c r="C18">
-        <v>0.017342334300536801</v>
+        <v>0.092330117880999651</v>
       </c>
       <c r="D18">
-        <v>0.086859071722791087</v>
+        <v>0.012681410605126495</v>
       </c>
       <c r="E18">
-        <v>0.002830463303803351</v>
+        <v>0.029387161466338116</v>
       </c>
       <c r="F18">
-        <v>0.023024765402413824</v>
+        <v>0.020915857189324129</v>
       </c>
       <c r="G18">
-        <v>7.4345577150373414e-06</v>
+        <v>0.0081017855894651627</v>
       </c>
       <c r="H18">
-        <v>0.00051358988505302474</v>
+        <v>0.0080379210765953862</v>
       </c>
       <c r="I18">
-        <v>0.003901266406834282</v>
+        <v>0.060836208137622881</v>
       </c>
       <c r="J18">
-        <v>0.85982243940404635</v>
+        <v>0.58986985652418433</v>
       </c>
       <c r="K18">
-        <v>2.2215107377773301e-14</v>
+        <v>0.09176516072411528</v>
       </c>
       <c r="L18">
-        <v>0.0056014750158314905</v>
+        <v>0.073251246664344585</v>
       </c>
       <c r="M18">
         <v>9</v>
@@ -1047,37 +1065,37 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.6971197797888452e-05</v>
+        <v>1.1454116316347737e-05</v>
       </c>
       <c r="C19">
-        <v>0.0017045621285163069</v>
+        <v>0.0012774702144839054</v>
       </c>
       <c r="D19">
-        <v>0.7725343446730043</v>
+        <v>0.91396959264630673</v>
       </c>
       <c r="E19">
-        <v>1.3058729120536558e-05</v>
+        <v>9.2822569354225146e-06</v>
       </c>
       <c r="F19">
-        <v>0.021182123596966713</v>
+        <v>0.014524707332651276</v>
       </c>
       <c r="G19">
-        <v>1.2737475549590504e-05</v>
+        <v>9.2743169438221296e-05</v>
       </c>
       <c r="H19">
-        <v>0.00059047708878469916</v>
+        <v>0.0010516667910477396</v>
       </c>
       <c r="I19">
-        <v>0.037595896073547116</v>
+        <v>0.062728484878902924</v>
       </c>
       <c r="J19">
-        <v>0.1537015976376557</v>
+        <v>0.0033376743667904397</v>
       </c>
       <c r="K19">
-        <v>2.5619788870390178e-14</v>
+        <v>2.4760656140007108e-14</v>
       </c>
       <c r="L19">
-        <v>0.012578231399031282</v>
+        <v>0.0029969242271021741</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -1088,40 +1106,40 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.624594368431014e-06</v>
+        <v>9.5475829434218577e-05</v>
       </c>
       <c r="C20">
-        <v>0.00049854017247123121</v>
+        <v>0.023237321226053279</v>
       </c>
       <c r="D20">
-        <v>0.9498899615420342</v>
+        <v>0.10734699749213078</v>
       </c>
       <c r="E20">
-        <v>2.996010537145404e-06</v>
+        <v>0.002005221450135106</v>
       </c>
       <c r="F20">
-        <v>0.0065606791026164612</v>
+        <v>0.018499545282600022</v>
       </c>
       <c r="G20">
-        <v>0.00026576203309947407</v>
+        <v>1.7128297928770216e-05</v>
       </c>
       <c r="H20">
-        <v>0.00083512611185327951</v>
+        <v>0.00037004764009320113</v>
       </c>
       <c r="I20">
-        <v>0.039820629045729423</v>
+        <v>0.0029162772212637323</v>
       </c>
       <c r="J20">
-        <v>0.00072788372038199432</v>
+        <v>0.83717321707146586</v>
       </c>
       <c r="K20">
-        <v>2.2203112792379049e-14</v>
+        <v>2.2222871640284482e-14</v>
       </c>
       <c r="L20">
-        <v>0.0013937976668861277</v>
+        <v>0.0083387684888728622</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1129,40 +1147,40 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.8083550725250938e-05</v>
+        <v>9.7160000952495188e-05</v>
       </c>
       <c r="C21">
-        <v>0.0011119314135485797</v>
+        <v>0.017342334300536801</v>
       </c>
       <c r="D21">
-        <v>0.90729717801913257</v>
+        <v>0.086859071722791087</v>
       </c>
       <c r="E21">
-        <v>8.7163887212264019e-06</v>
+        <v>0.002830463303803351</v>
       </c>
       <c r="F21">
-        <v>0.013635149961007339</v>
+        <v>0.023024765402413824</v>
       </c>
       <c r="G21">
-        <v>8.6435189963828544e-05</v>
+        <v>7.4345577150373414e-06</v>
       </c>
       <c r="H21">
-        <v>0.0010381570137786664</v>
+        <v>0.00051358988505302474</v>
       </c>
       <c r="I21">
-        <v>0.064617555292263484</v>
+        <v>0.003901266406834282</v>
       </c>
       <c r="J21">
-        <v>0.0071498894613083539</v>
+        <v>0.85982243940404635</v>
       </c>
       <c r="K21">
-        <v>2.4879746296540254e-14</v>
+        <v>2.2215107377773301e-14</v>
       </c>
       <c r="L21">
-        <v>0.0050369037095258379</v>
+        <v>0.0056014750158314905</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1170,37 +1188,37 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.6705999377518911e-05</v>
+        <v>8.6971197797888452e-05</v>
       </c>
       <c r="C22">
-        <v>0.0020189223612625887</v>
+        <v>0.0017045621285163069</v>
       </c>
       <c r="D22">
-        <v>0.90743850434167661</v>
+        <v>0.7725343446730043</v>
       </c>
       <c r="E22">
-        <v>2.8214045139180406e-05</v>
+        <v>1.3058729120536558e-05</v>
       </c>
       <c r="F22">
-        <v>0.0139275184847864</v>
+        <v>0.021182123596966713</v>
       </c>
       <c r="G22">
-        <v>0.0005162875972031522</v>
+        <v>1.2737475549590504e-05</v>
       </c>
       <c r="H22">
-        <v>0.00093151869228008991</v>
+        <v>0.00059047708878469916</v>
       </c>
       <c r="I22">
-        <v>0.065454461769546418</v>
+        <v>0.037595896073547116</v>
       </c>
       <c r="J22">
-        <v>0.0056011253813506223</v>
+        <v>0.1537015976376557</v>
       </c>
       <c r="K22">
-        <v>2.5176318473201344e-14</v>
+        <v>2.5619788870390178e-14</v>
       </c>
       <c r="L22">
-        <v>0.0040667413273521849</v>
+        <v>0.012578231399031282</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -1211,37 +1229,37 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.00017519174650923404</v>
+        <v>4.624594368431014e-06</v>
       </c>
       <c r="C23">
-        <v>0.0020546026962585274</v>
+        <v>0.00049854017247123121</v>
       </c>
       <c r="D23">
-        <v>0.6774061944349512</v>
+        <v>0.9498899615420342</v>
       </c>
       <c r="E23">
-        <v>7.3671307860602184e-05</v>
+        <v>2.996010537145404e-06</v>
       </c>
       <c r="F23">
-        <v>0.03389933979072686</v>
+        <v>0.0065606791026164612</v>
       </c>
       <c r="G23">
-        <v>2.7169277213308031e-05</v>
+        <v>0.00026576203309947407</v>
       </c>
       <c r="H23">
-        <v>0.00076078821681207348</v>
+        <v>0.00083512611185327951</v>
       </c>
       <c r="I23">
-        <v>0.029650610198016836</v>
+        <v>0.039820629045729423</v>
       </c>
       <c r="J23">
-        <v>0.22688691279553647</v>
+        <v>0.00072788372038199432</v>
       </c>
       <c r="K23">
-        <v>3.0414279509086292e-14</v>
+        <v>2.2203112792379049e-14</v>
       </c>
       <c r="L23">
-        <v>0.029065519536084508</v>
+        <v>0.0013937976668861277</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -1252,37 +1270,37 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0001655545845060078</v>
+        <v>1.8083550725250938e-05</v>
       </c>
       <c r="C24">
-        <v>0.0022490837168913516</v>
+        <v>0.0011119314135485797</v>
       </c>
       <c r="D24">
-        <v>0.83148590796508404</v>
+        <v>0.90729717801913257</v>
       </c>
       <c r="E24">
-        <v>3.9927898410995147e-05</v>
+        <v>8.7163887212264019e-06</v>
       </c>
       <c r="F24">
-        <v>0.028832059481506835</v>
+        <v>0.013635149961007339</v>
       </c>
       <c r="G24">
-        <v>8.1210102614816983e-05</v>
+        <v>8.6435189963828544e-05</v>
       </c>
       <c r="H24">
-        <v>0.0010386328941018753</v>
+        <v>0.0010381570137786664</v>
       </c>
       <c r="I24">
-        <v>0.059053570467363523</v>
+        <v>0.064617555292263484</v>
       </c>
       <c r="J24">
-        <v>0.061058127012833627</v>
+        <v>0.0071498894613083539</v>
       </c>
       <c r="K24">
-        <v>3.4437527662050315e-14</v>
+        <v>2.4879746296540254e-14</v>
       </c>
       <c r="L24">
-        <v>0.015995925876652592</v>
+        <v>0.0050369037095258379</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -1293,40 +1311,40 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.010093767663088315</v>
+        <v>1.6705999377518911e-05</v>
       </c>
       <c r="C25">
-        <v>0.023625821865123981</v>
+        <v>0.0020189223612625887</v>
       </c>
       <c r="D25">
-        <v>0.06679266934976115</v>
+        <v>0.90743850434167661</v>
       </c>
       <c r="E25">
-        <v>0.038936158263256054</v>
+        <v>2.8214045139180406e-05</v>
       </c>
       <c r="F25">
-        <v>0.018679425520647917</v>
+        <v>0.0139275184847864</v>
       </c>
       <c r="G25">
-        <v>0.0072335173623133417</v>
+        <v>0.0005162875972031522</v>
       </c>
       <c r="H25">
-        <v>0.0086331207298409457</v>
+        <v>0.00093151869228008991</v>
       </c>
       <c r="I25">
-        <v>0.026674264536393471</v>
+        <v>0.065454461769546418</v>
       </c>
       <c r="J25">
-        <v>0.72370022707943849</v>
+        <v>0.0056011253813506223</v>
       </c>
       <c r="K25">
-        <v>0.065316115607357561</v>
+        <v>2.5176318473201344e-14</v>
       </c>
       <c r="L25">
-        <v>0.010314912022778906</v>
+        <v>0.0040667413273521849</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1334,40 +1352,40 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.010994419871491436</v>
+        <v>0.00017519174650923404</v>
       </c>
       <c r="C26">
-        <v>0.012732266855357067</v>
+        <v>0.0020546026962585274</v>
       </c>
       <c r="D26">
-        <v>0.094354979103041567</v>
+        <v>0.6774061944349512</v>
       </c>
       <c r="E26">
-        <v>0.011013825423877121</v>
+        <v>7.3671307860602184e-05</v>
       </c>
       <c r="F26">
-        <v>0.017168979869057806</v>
+        <v>0.03389933979072686</v>
       </c>
       <c r="G26">
-        <v>0.011495069305936627</v>
+        <v>2.7169277213308031e-05</v>
       </c>
       <c r="H26">
-        <v>0.012217695234344413</v>
+        <v>0.00076078821681207348</v>
       </c>
       <c r="I26">
-        <v>0.61012753210797355</v>
+        <v>0.029650610198016836</v>
       </c>
       <c r="J26">
-        <v>0.012165206332520573</v>
+        <v>0.22688691279553647</v>
       </c>
       <c r="K26">
-        <v>0.19261914073850778</v>
+        <v>3.0414279509086292e-14</v>
       </c>
       <c r="L26">
-        <v>0.015110885157892035</v>
+        <v>0.029065519536084508</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1375,40 +1393,40 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.00027433434990913307</v>
+        <v>0.0001655545845060078</v>
       </c>
       <c r="C27">
-        <v>0.0054158207638152645</v>
+        <v>0.0022490837168913516</v>
       </c>
       <c r="D27">
-        <v>0.079544033600357791</v>
+        <v>0.83148590796508404</v>
       </c>
       <c r="E27">
-        <v>0.001721961841694533</v>
+        <v>3.9927898410995147e-05</v>
       </c>
       <c r="F27">
-        <v>0.025927781878612277</v>
+        <v>0.028832059481506835</v>
       </c>
       <c r="G27">
-        <v>1.388759213111837e-05</v>
+        <v>8.1210102614816983e-05</v>
       </c>
       <c r="H27">
-        <v>0.0011246172464014451</v>
+        <v>0.0010386328941018753</v>
       </c>
       <c r="I27">
-        <v>0.0067750363808505541</v>
+        <v>0.059053570467363523</v>
       </c>
       <c r="J27">
-        <v>0.85476820807272536</v>
+        <v>0.061058127012833627</v>
       </c>
       <c r="K27">
-        <v>2.4932015984993178e-14</v>
+        <v>3.4437527662050315e-14</v>
       </c>
       <c r="L27">
-        <v>0.024434318273477605</v>
+        <v>0.015995925876652592</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1416,37 +1434,37 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.0001180419270985322</v>
+        <v>0.010093767663088315</v>
       </c>
       <c r="C28">
-        <v>0.020341438362487186</v>
+        <v>0.023625821865123981</v>
       </c>
       <c r="D28">
-        <v>0.053787151169743176</v>
+        <v>0.06679266934976115</v>
       </c>
       <c r="E28">
-        <v>0.031090866693566015</v>
+        <v>0.038936158263256054</v>
       </c>
       <c r="F28">
-        <v>0.01332576201435438</v>
+        <v>0.018679425520647917</v>
       </c>
       <c r="G28">
-        <v>1.2608006940627418e-05</v>
+        <v>0.0072335173623133417</v>
       </c>
       <c r="H28">
-        <v>0.00044243109388827315</v>
+        <v>0.0086331207298409457</v>
       </c>
       <c r="I28">
-        <v>0.010908569021915913</v>
+        <v>0.026674264536393471</v>
       </c>
       <c r="J28">
-        <v>0.86582020901082801</v>
+        <v>0.72370022707943849</v>
       </c>
       <c r="K28">
-        <v>2.2224993413824824e-14</v>
+        <v>0.065316115607357561</v>
       </c>
       <c r="L28">
-        <v>0.0041529226991555528</v>
+        <v>0.010314912022778906</v>
       </c>
       <c r="M28">
         <v>9</v>
@@ -1457,40 +1475,40 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.00014401280061510151</v>
+        <v>0.010994419871491436</v>
       </c>
       <c r="C29">
-        <v>0.011155454746593536</v>
+        <v>0.012732266855357067</v>
       </c>
       <c r="D29">
-        <v>0.042165666022104815</v>
+        <v>0.094354979103041567</v>
       </c>
       <c r="E29">
-        <v>0.0021080375766980783</v>
+        <v>0.011013825423877121</v>
       </c>
       <c r="F29">
-        <v>0.012344188746216933</v>
+        <v>0.017168979869057806</v>
       </c>
       <c r="G29">
-        <v>4.1899177395575641e-06</v>
+        <v>0.011495069305936627</v>
       </c>
       <c r="H29">
-        <v>0.00060373209264269348</v>
+        <v>0.012217695234344413</v>
       </c>
       <c r="I29">
-        <v>0.0027892709525667667</v>
+        <v>0.61012753210797355</v>
       </c>
       <c r="J29">
-        <v>0.92000225904734101</v>
+        <v>0.012165206332520573</v>
       </c>
       <c r="K29">
-        <v>2.2216431465491817e-14</v>
+        <v>0.19261914073850778</v>
       </c>
       <c r="L29">
-        <v>0.0086831880974592868</v>
+        <v>0.015110885157892035</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1498,40 +1516,40 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.4811702712389857e-05</v>
+        <v>0.00027433434990913307</v>
       </c>
       <c r="C30">
-        <v>0.00099010698830411903</v>
+        <v>0.0054158207638152645</v>
       </c>
       <c r="D30">
-        <v>0.9374540654272564</v>
+        <v>0.079544033600357791</v>
       </c>
       <c r="E30">
-        <v>6.6551757629297883e-06</v>
+        <v>0.001721961841694533</v>
       </c>
       <c r="F30">
-        <v>0.011479842291630469</v>
+        <v>0.025927781878612277</v>
       </c>
       <c r="G30">
-        <v>0.0001735240498682004</v>
+        <v>1.388759213111837e-05</v>
       </c>
       <c r="H30">
-        <v>0.0011659436602536972</v>
+        <v>0.0011246172464014451</v>
       </c>
       <c r="I30">
-        <v>0.038156562445008917</v>
+        <v>0.0067750363808505541</v>
       </c>
       <c r="J30">
-        <v>0.0024610455332130503</v>
+        <v>0.85476820807272536</v>
       </c>
       <c r="K30">
-        <v>2.6986230368543844e-14</v>
+        <v>2.4932015984993178e-14</v>
       </c>
       <c r="L30">
-        <v>0.0080974427259630118</v>
+        <v>0.024434318273477605</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1539,40 +1557,40 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4.6274177722444432e-05</v>
+        <v>0.0013460755510306007</v>
       </c>
       <c r="C31">
-        <v>0.00134722971636671</v>
+        <v>0.0038182167360186264</v>
       </c>
       <c r="D31">
-        <v>0.95291067470539059</v>
+        <v>0.0062980330752778384</v>
       </c>
       <c r="E31">
-        <v>7.2572426281563062e-06</v>
+        <v>1.4306352579578202e-06</v>
       </c>
       <c r="F31">
-        <v>0.013855584751906005</v>
+        <v>0.00073234343742276738</v>
       </c>
       <c r="G31">
-        <v>0.00019760177896072757</v>
+        <v>0.013666155534833281</v>
       </c>
       <c r="H31">
-        <v>0.00087505560149799292</v>
+        <v>0.017543298327831237</v>
       </c>
       <c r="I31">
-        <v>0.012072627945558422</v>
+        <v>0.00047738702694395902</v>
       </c>
       <c r="J31">
-        <v>0.0046503051667568804</v>
+        <v>0.95599730815183848</v>
       </c>
       <c r="K31">
-        <v>2.2906972231437779e-14</v>
+        <v>2.2201951169342301e-14</v>
       </c>
       <c r="L31">
-        <v>0.01403738891318926</v>
+        <v>0.00011975152352301648</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1580,40 +1598,40 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.5359981693086196e-05</v>
+        <v>0.0001180419270985322</v>
       </c>
       <c r="C32">
-        <v>0.00061119915365227893</v>
+        <v>0.020341438362487186</v>
       </c>
       <c r="D32">
-        <v>0.95541214658492923</v>
+        <v>0.053787151169743176</v>
       </c>
       <c r="E32">
-        <v>5.3611806254152375e-06</v>
+        <v>0.031090866693566015</v>
       </c>
       <c r="F32">
-        <v>0.0090371072565577186</v>
+        <v>0.01332576201435438</v>
       </c>
       <c r="G32">
-        <v>9.5089019576139602e-05</v>
+        <v>1.2608006940627418e-05</v>
       </c>
       <c r="H32">
-        <v>0.00095334612712886884</v>
+        <v>0.00044243109388827315</v>
       </c>
       <c r="I32">
-        <v>0.020857635088095367</v>
+        <v>0.010908569021915913</v>
       </c>
       <c r="J32">
-        <v>0.0035963760940550754</v>
+        <v>0.86582020901082801</v>
       </c>
       <c r="K32">
-        <v>2.2648500521510756e-14</v>
+        <v>2.2224993413824824e-14</v>
       </c>
       <c r="L32">
-        <v>0.0094163795136639524</v>
+        <v>0.0041529226991555528</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1621,40 +1639,40 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.011002823783594826</v>
+        <v>0.00014401280061510151</v>
       </c>
       <c r="C33">
-        <v>0.012749619407870047</v>
+        <v>0.011155454746593536</v>
       </c>
       <c r="D33">
-        <v>0.12209202986767072</v>
+        <v>0.042165666022104815</v>
       </c>
       <c r="E33">
-        <v>0.01102818237573145</v>
+        <v>0.0021080375766980783</v>
       </c>
       <c r="F33">
-        <v>0.018524797906431637</v>
+        <v>0.012344188746216933</v>
       </c>
       <c r="G33">
-        <v>0.011201917335900112</v>
+        <v>4.1899177395575641e-06</v>
       </c>
       <c r="H33">
-        <v>0.011700435617741853</v>
+        <v>0.00060373209264269348</v>
       </c>
       <c r="I33">
-        <v>0.3247958216029469</v>
+        <v>0.0027892709525667667</v>
       </c>
       <c r="J33">
-        <v>0.014491478150119896</v>
+        <v>0.92000225904734101</v>
       </c>
       <c r="K33">
-        <v>0.4412976281140123</v>
+        <v>2.2216431465491817e-14</v>
       </c>
       <c r="L33">
-        <v>0.021115265837980204</v>
+        <v>0.0086831880974592868</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1662,40 +1680,40 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.010618339198115967</v>
+        <v>1.4811702712389857e-05</v>
       </c>
       <c r="C34">
-        <v>0.036889793598653089</v>
+        <v>0.00099010698830411903</v>
       </c>
       <c r="D34">
-        <v>0.15037870405011244</v>
+        <v>0.9374540654272564</v>
       </c>
       <c r="E34">
-        <v>0.028467338649057618</v>
+        <v>6.6551757629297883e-06</v>
       </c>
       <c r="F34">
-        <v>0.031225476354137475</v>
+        <v>0.011479842291630469</v>
       </c>
       <c r="G34">
-        <v>0.010614007756518837</v>
+        <v>0.0001735240498682004</v>
       </c>
       <c r="H34">
-        <v>0.012067935815203861</v>
+        <v>0.0011659436602536972</v>
       </c>
       <c r="I34">
-        <v>0.014288606709632517</v>
+        <v>0.038156562445008917</v>
       </c>
       <c r="J34">
-        <v>0.28457360379444935</v>
+        <v>0.0024610455332130503</v>
       </c>
       <c r="K34">
-        <v>0.41019235363567286</v>
+        <v>2.6986230368543844e-14</v>
       </c>
       <c r="L34">
-        <v>0.010683840438446123</v>
+        <v>0.0080974427259630118</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1703,40 +1721,40 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.011005683166918058</v>
+        <v>4.6274177722444432e-05</v>
       </c>
       <c r="C35">
-        <v>0.084959588970393324</v>
+        <v>0.00134722971636671</v>
       </c>
       <c r="D35">
-        <v>0.04820464213337565</v>
+        <v>0.95291067470539059</v>
       </c>
       <c r="E35">
-        <v>0.042838538114905053</v>
+        <v>7.2572426281563062e-06</v>
       </c>
       <c r="F35">
-        <v>0.02352530408263289</v>
+        <v>0.013855584751906005</v>
       </c>
       <c r="G35">
-        <v>0.010471690135783437</v>
+        <v>0.00019760177896072757</v>
       </c>
       <c r="H35">
-        <v>0.013984630670020209</v>
+        <v>0.00087505560149799292</v>
       </c>
       <c r="I35">
-        <v>0.018760581038198974</v>
+        <v>0.012072627945558422</v>
       </c>
       <c r="J35">
-        <v>0.33006138910398686</v>
+        <v>0.0046503051667568804</v>
       </c>
       <c r="K35">
-        <v>0.40565910385825793</v>
+        <v>2.2906972231437779e-14</v>
       </c>
       <c r="L35">
-        <v>0.010528848725527597</v>
+        <v>0.01403738891318926</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1744,40 +1762,40 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.0092486358987833098</v>
+        <v>1.5359981693086196e-05</v>
       </c>
       <c r="C36">
-        <v>0.014178365142855564</v>
+        <v>0.00061119915365227893</v>
       </c>
       <c r="D36">
-        <v>0.041502045905557304</v>
+        <v>0.95541214658492923</v>
       </c>
       <c r="E36">
-        <v>0.009322770759238019</v>
+        <v>5.3611806254152375e-06</v>
       </c>
       <c r="F36">
-        <v>0.017153832504636989</v>
+        <v>0.0090371072565577186</v>
       </c>
       <c r="G36">
-        <v>0.0095804521863321595</v>
+        <v>9.5089019576139602e-05</v>
       </c>
       <c r="H36">
-        <v>0.010229173878998745</v>
+        <v>0.00095334612712886884</v>
       </c>
       <c r="I36">
-        <v>0.78412181887185173</v>
+        <v>0.020857635088095367</v>
       </c>
       <c r="J36">
-        <v>0.011660922529267861</v>
+        <v>0.0035963760940550754</v>
       </c>
       <c r="K36">
-        <v>0.082034143544294474</v>
+        <v>2.2648500521510756e-14</v>
       </c>
       <c r="L36">
-        <v>0.010967838778183794</v>
+        <v>0.0094163795136639524</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1785,40 +1803,40 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.011237037829932401</v>
+        <v>0.011002823783594826</v>
       </c>
       <c r="C37">
-        <v>0.0133241058529673</v>
+        <v>0.012749619407870047</v>
       </c>
       <c r="D37">
-        <v>0.09869693258164676</v>
+        <v>0.12209202986767072</v>
       </c>
       <c r="E37">
-        <v>0.011254227677761261</v>
+        <v>0.01102818237573145</v>
       </c>
       <c r="F37">
-        <v>0.017607555125539871</v>
+        <v>0.018524797906431637</v>
       </c>
       <c r="G37">
-        <v>0.011507804104088561</v>
+        <v>0.011201917335900112</v>
       </c>
       <c r="H37">
-        <v>0.012388361781278426</v>
+        <v>0.011700435617741853</v>
       </c>
       <c r="I37">
-        <v>0.52087097926078696</v>
+        <v>0.3247958216029469</v>
       </c>
       <c r="J37">
-        <v>0.012564517139827702</v>
+        <v>0.014491478150119896</v>
       </c>
       <c r="K37">
-        <v>0.27527633324536982</v>
+        <v>0.4412976281140123</v>
       </c>
       <c r="L37">
-        <v>0.015272145400801001</v>
+        <v>0.021115265837980204</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1826,37 +1844,37 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.010260947608662002</v>
+        <v>0.010618339198115967</v>
       </c>
       <c r="C38">
-        <v>0.012737230372692138</v>
+        <v>0.036889793598653089</v>
       </c>
       <c r="D38">
-        <v>0.090160890113795245</v>
+        <v>0.15037870405011244</v>
       </c>
       <c r="E38">
-        <v>0.010309728437840995</v>
+        <v>0.028467338649057618</v>
       </c>
       <c r="F38">
-        <v>0.027331465830379802</v>
+        <v>0.031225476354137475</v>
       </c>
       <c r="G38">
-        <v>0.010263532568757122</v>
+        <v>0.010614007756518837</v>
       </c>
       <c r="H38">
-        <v>0.010525131890270404</v>
+        <v>0.012067935815203861</v>
       </c>
       <c r="I38">
-        <v>0.11746598344774785</v>
+        <v>0.014288606709632517</v>
       </c>
       <c r="J38">
-        <v>0.14236883680643614</v>
+        <v>0.28457360379444935</v>
       </c>
       <c r="K38">
-        <v>0.49579406992045633</v>
+        <v>0.41019235363567286</v>
       </c>
       <c r="L38">
-        <v>0.072782183002961937</v>
+        <v>0.010683840438446123</v>
       </c>
       <c r="M38">
         <v>10</v>
@@ -1867,37 +1885,37 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.010490702419633624</v>
+        <v>0.011005683166918058</v>
       </c>
       <c r="C39">
-        <v>0.015148665819461456</v>
+        <v>0.084959588970393324</v>
       </c>
       <c r="D39">
-        <v>0.069302405055588281</v>
+        <v>0.04820464213337565</v>
       </c>
       <c r="E39">
-        <v>0.0105854836861379</v>
+        <v>0.042838538114905053</v>
       </c>
       <c r="F39">
-        <v>0.024303920921551252</v>
+        <v>0.02352530408263289</v>
       </c>
       <c r="G39">
-        <v>0.010628061601379449</v>
+        <v>0.010471690135783437</v>
       </c>
       <c r="H39">
-        <v>0.010791203795253309</v>
+        <v>0.013984630670020209</v>
       </c>
       <c r="I39">
-        <v>0.28535377109488497</v>
+        <v>0.018760581038198974</v>
       </c>
       <c r="J39">
-        <v>0.041305548858344594</v>
+        <v>0.33006138910398686</v>
       </c>
       <c r="K39">
-        <v>0.46097986065976337</v>
+        <v>0.40565910385825793</v>
       </c>
       <c r="L39">
-        <v>0.061110376088001718</v>
+        <v>0.010528848725527597</v>
       </c>
       <c r="M39">
         <v>10</v>
@@ -1908,40 +1926,40 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.011193052913660493</v>
+        <v>0.0092486358987833098</v>
       </c>
       <c r="C40">
-        <v>0.013313247755298815</v>
+        <v>0.014178365142855564</v>
       </c>
       <c r="D40">
-        <v>0.065786301768070016</v>
+        <v>0.041502045905557304</v>
       </c>
       <c r="E40">
-        <v>0.01120919273918972</v>
+        <v>0.009322770759238019</v>
       </c>
       <c r="F40">
-        <v>0.016573177936843281</v>
+        <v>0.017153832504636989</v>
       </c>
       <c r="G40">
-        <v>0.011369528683029782</v>
+        <v>0.0095804521863321595</v>
       </c>
       <c r="H40">
-        <v>0.01191807865533912</v>
+        <v>0.010229173878998745</v>
       </c>
       <c r="I40">
-        <v>0.4516240667823514</v>
+        <v>0.78412181887185173</v>
       </c>
       <c r="J40">
-        <v>0.018339193899721322</v>
+        <v>0.011660922529267861</v>
       </c>
       <c r="K40">
-        <v>0.36992713020924201</v>
+        <v>0.082034143544294474</v>
       </c>
       <c r="L40">
-        <v>0.018747028657254142</v>
+        <v>0.010967838778183794</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1949,40 +1967,40 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.012908930410228066</v>
+        <v>0.011237037829932401</v>
       </c>
       <c r="C41">
-        <v>0.050627499935106401</v>
+        <v>0.0133241058529673</v>
       </c>
       <c r="D41">
-        <v>0.064205332445438607</v>
+        <v>0.09869693258164676</v>
       </c>
       <c r="E41">
-        <v>0.030003221876694547</v>
+        <v>0.011254227677761261</v>
       </c>
       <c r="F41">
-        <v>0.02480309617155415</v>
+        <v>0.017607555125539871</v>
       </c>
       <c r="G41">
-        <v>0.010574983308394402</v>
+        <v>0.011507804104088561</v>
       </c>
       <c r="H41">
-        <v>0.015649684052477308</v>
+        <v>0.012388361781278426</v>
       </c>
       <c r="I41">
-        <v>0.020642322052996112</v>
+        <v>0.52087097926078696</v>
       </c>
       <c r="J41">
-        <v>0.3567184489383558</v>
+        <v>0.012564517139827702</v>
       </c>
       <c r="K41">
-        <v>0.40333342610645195</v>
+        <v>0.27527633324536982</v>
       </c>
       <c r="L41">
-        <v>0.010533054702302791</v>
+        <v>0.015272145400801001</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1990,37 +2008,37 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.010343135543663454</v>
+        <v>0.010260947608662002</v>
       </c>
       <c r="C42">
-        <v>0.012662776482771795</v>
+        <v>0.012737230372692138</v>
       </c>
       <c r="D42">
-        <v>0.1380085028437634</v>
+        <v>0.090160890113795245</v>
       </c>
       <c r="E42">
-        <v>0.010431690140270648</v>
+        <v>0.010309728437840995</v>
       </c>
       <c r="F42">
-        <v>0.023933448169427475</v>
+        <v>0.027331465830379802</v>
       </c>
       <c r="G42">
-        <v>0.010467225529931493</v>
+        <v>0.010263532568757122</v>
       </c>
       <c r="H42">
-        <v>0.010699737471434359</v>
+        <v>0.010525131890270404</v>
       </c>
       <c r="I42">
-        <v>0.1317100576822369</v>
+        <v>0.11746598344774785</v>
       </c>
       <c r="J42">
-        <v>0.052596697856509604</v>
+        <v>0.14236883680643614</v>
       </c>
       <c r="K42">
-        <v>0.53099266329866157</v>
+        <v>0.49579406992045633</v>
       </c>
       <c r="L42">
-        <v>0.068154064981329421</v>
+        <v>0.072782183002961937</v>
       </c>
       <c r="M42">
         <v>10</v>
@@ -2031,40 +2049,40 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3.8141849345132194e-07</v>
+        <v>0.010490702419633624</v>
       </c>
       <c r="C43">
-        <v>0.0085512912636681628</v>
+        <v>0.015148665819461456</v>
       </c>
       <c r="D43">
-        <v>0.12694636986104291</v>
+        <v>0.069302405055588281</v>
       </c>
       <c r="E43">
-        <v>3.0920093518187472e-05</v>
+        <v>0.0105854836861379</v>
       </c>
       <c r="F43">
-        <v>0.012199733893472526</v>
+        <v>0.024303920921551252</v>
       </c>
       <c r="G43">
-        <v>0.00079665090736532002</v>
+        <v>0.010628061601379449</v>
       </c>
       <c r="H43">
-        <v>0.0062475377090804637</v>
+        <v>0.010791203795253309</v>
       </c>
       <c r="I43">
-        <v>0.84090268694842607</v>
+        <v>0.28535377109488497</v>
       </c>
       <c r="J43">
-        <v>0.00225321251790511</v>
+        <v>0.041305548858344594</v>
       </c>
       <c r="K43">
-        <v>5.4641172944202926e-14</v>
+        <v>0.46097986065976337</v>
       </c>
       <c r="L43">
-        <v>0.0020712153869731475</v>
+        <v>0.061110376088001718</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2072,37 +2090,37 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.010870827856532303</v>
+        <v>0.011193052913660493</v>
       </c>
       <c r="C44">
-        <v>0.063289001388467853</v>
+        <v>0.013313247755298815</v>
       </c>
       <c r="D44">
-        <v>0.10457194376785847</v>
+        <v>0.065786301768070016</v>
       </c>
       <c r="E44">
-        <v>0.02216061093029743</v>
+        <v>0.01120919273918972</v>
       </c>
       <c r="F44">
-        <v>0.032563429361027206</v>
+        <v>0.016573177936843281</v>
       </c>
       <c r="G44">
-        <v>0.010472480670757232</v>
+        <v>0.011369528683029782</v>
       </c>
       <c r="H44">
-        <v>0.011770655769469248</v>
+        <v>0.01191807865533912</v>
       </c>
       <c r="I44">
-        <v>0.018442194169719893</v>
+        <v>0.4516240667823514</v>
       </c>
       <c r="J44">
-        <v>0.24456202606113789</v>
+        <v>0.018339193899721322</v>
       </c>
       <c r="K44">
-        <v>0.47077396866300392</v>
+        <v>0.36992713020924201</v>
       </c>
       <c r="L44">
-        <v>0.010522861361728553</v>
+        <v>0.018747028657254142</v>
       </c>
       <c r="M44">
         <v>10</v>
@@ -2113,37 +2131,37 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.010854264727916525</v>
+        <v>0.012908930410228066</v>
       </c>
       <c r="C45">
-        <v>0.034523191088914634</v>
+        <v>0.050627499935106401</v>
       </c>
       <c r="D45">
-        <v>0.14978231059489056</v>
+        <v>0.064205332445438607</v>
       </c>
       <c r="E45">
-        <v>0.05814514391947246</v>
+        <v>0.030003221876694547</v>
       </c>
       <c r="F45">
-        <v>0.037185599129918007</v>
+        <v>0.02480309617155415</v>
       </c>
       <c r="G45">
-        <v>0.01047246471189707</v>
+        <v>0.010574983308394402</v>
       </c>
       <c r="H45">
-        <v>0.012025830058430886</v>
+        <v>0.015649684052477308</v>
       </c>
       <c r="I45">
-        <v>0.016423710311013619</v>
+        <v>0.020642322052996112</v>
       </c>
       <c r="J45">
-        <v>0.09147954409344583</v>
+        <v>0.3567184489383558</v>
       </c>
       <c r="K45">
-        <v>0.56872852432656906</v>
+        <v>0.40333342610645195</v>
       </c>
       <c r="L45">
-        <v>0.010379417037531142</v>
+        <v>0.010533054702302791</v>
       </c>
       <c r="M45">
         <v>10</v>
@@ -2154,40 +2172,40 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.010780637370824473</v>
+        <v>0.010343135543663454</v>
       </c>
       <c r="C46">
-        <v>0.011911105872862834</v>
+        <v>0.012662776482771795</v>
       </c>
       <c r="D46">
-        <v>0.099404844755445324</v>
+        <v>0.1380085028437634</v>
       </c>
       <c r="E46">
-        <v>0.010797268745821676</v>
+        <v>0.010431690140270648</v>
       </c>
       <c r="F46">
-        <v>0.016733829578391569</v>
+        <v>0.023933448169427475</v>
       </c>
       <c r="G46">
-        <v>0.011237864376660148</v>
+        <v>0.010467225529931493</v>
       </c>
       <c r="H46">
-        <v>0.012111677949721905</v>
+        <v>0.010699737471434359</v>
       </c>
       <c r="I46">
-        <v>0.63866245612500105</v>
+        <v>0.1317100576822369</v>
       </c>
       <c r="J46">
-        <v>0.01170976816088874</v>
+        <v>0.052596697856509604</v>
       </c>
       <c r="K46">
-        <v>0.16277845889695111</v>
+        <v>0.53099266329866157</v>
       </c>
       <c r="L46">
-        <v>0.013872088167431232</v>
+        <v>0.068154064981329421</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2195,40 +2213,40 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.011151207036850765</v>
+        <v>3.8141849345132194e-07</v>
       </c>
       <c r="C47">
-        <v>0.013393471335495925</v>
+        <v>0.0085512912636681628</v>
       </c>
       <c r="D47">
-        <v>0.15216521208623851</v>
+        <v>0.12694636986104291</v>
       </c>
       <c r="E47">
-        <v>0.011183756494896155</v>
+        <v>3.0920093518187472e-05</v>
       </c>
       <c r="F47">
-        <v>0.016328195423391315</v>
+        <v>0.012199733893472526</v>
       </c>
       <c r="G47">
-        <v>0.011359620661721121</v>
+        <v>0.00079665090736532002</v>
       </c>
       <c r="H47">
-        <v>0.011897734989256888</v>
+        <v>0.0062475377090804637</v>
       </c>
       <c r="I47">
-        <v>0.34172447405168821</v>
+        <v>0.84090268694842607</v>
       </c>
       <c r="J47">
-        <v>0.013945411000758813</v>
+        <v>0.00225321251790511</v>
       </c>
       <c r="K47">
-        <v>0.40356617242635751</v>
+        <v>5.4641172944202926e-14</v>
       </c>
       <c r="L47">
-        <v>0.013284744493344809</v>
+        <v>0.0020712153869731475</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2236,37 +2254,37 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.011602593567621704</v>
+        <v>0.010870827856532303</v>
       </c>
       <c r="C48">
-        <v>0.043697182775545643</v>
+        <v>0.063289001388467853</v>
       </c>
       <c r="D48">
-        <v>0.18334465002578487</v>
+        <v>0.10457194376785847</v>
       </c>
       <c r="E48">
-        <v>0.023177374706279587</v>
+        <v>0.02216061093029743</v>
       </c>
       <c r="F48">
-        <v>0.035158750556277728</v>
+        <v>0.032563429361027206</v>
       </c>
       <c r="G48">
-        <v>0.010523540701216423</v>
+        <v>0.010472480670757232</v>
       </c>
       <c r="H48">
-        <v>0.012241648683527524</v>
+        <v>0.011770655769469248</v>
       </c>
       <c r="I48">
-        <v>0.018945290150244331</v>
+        <v>0.018442194169719893</v>
       </c>
       <c r="J48">
-        <v>0.13015766926817321</v>
+        <v>0.24456202606113789</v>
       </c>
       <c r="K48">
-        <v>0.5206803391274667</v>
+        <v>0.47077396866300392</v>
       </c>
       <c r="L48">
-        <v>0.010470960437862284</v>
+        <v>0.010522861361728553</v>
       </c>
       <c r="M48">
         <v>10</v>
@@ -2277,37 +2295,37 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.013957159665695379</v>
+        <v>0.010854264727916525</v>
       </c>
       <c r="C49">
-        <v>0.057379470228485961</v>
+        <v>0.034523191088914634</v>
       </c>
       <c r="D49">
-        <v>0.18695004632273854</v>
+        <v>0.14978231059489056</v>
       </c>
       <c r="E49">
-        <v>0.030593288830345431</v>
+        <v>0.05814514391947246</v>
       </c>
       <c r="F49">
-        <v>0.030786521615182961</v>
+        <v>0.037185599129918007</v>
       </c>
       <c r="G49">
-        <v>0.011645475577868807</v>
+        <v>0.01047246471189707</v>
       </c>
       <c r="H49">
-        <v>0.013241926666649364</v>
+        <v>0.012025830058430886</v>
       </c>
       <c r="I49">
-        <v>0.022130590081491385</v>
+        <v>0.016423710311013619</v>
       </c>
       <c r="J49">
-        <v>0.045995867298945246</v>
+        <v>0.09147954409344583</v>
       </c>
       <c r="K49">
-        <v>0.57704519069987892</v>
+        <v>0.56872852432656906</v>
       </c>
       <c r="L49">
-        <v>0.010274463012718249</v>
+        <v>0.010379417037531142</v>
       </c>
       <c r="M49">
         <v>10</v>
@@ -2318,40 +2336,40 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.010676789136861771</v>
+        <v>0.010780637370824473</v>
       </c>
       <c r="C50">
-        <v>0.040082611085626732</v>
+        <v>0.011911105872862834</v>
       </c>
       <c r="D50">
-        <v>0.13069474977883191</v>
+        <v>0.099404844755445324</v>
       </c>
       <c r="E50">
-        <v>0.031854812968826265</v>
+        <v>0.010797268745821676</v>
       </c>
       <c r="F50">
-        <v>0.029363455841965053</v>
+        <v>0.016733829578391569</v>
       </c>
       <c r="G50">
-        <v>0.01058230734631675</v>
+        <v>0.011237864376660148</v>
       </c>
       <c r="H50">
-        <v>0.012770202894788876</v>
+        <v>0.012111677949721905</v>
       </c>
       <c r="I50">
-        <v>0.015636636448847</v>
+        <v>0.63866245612500105</v>
       </c>
       <c r="J50">
-        <v>0.18355326820450818</v>
+        <v>0.01170976816088874</v>
       </c>
       <c r="K50">
-        <v>0.52428267707440901</v>
+        <v>0.16277845889695111</v>
       </c>
       <c r="L50">
-        <v>0.01050248921901843</v>
+        <v>0.013872088167431232</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2359,40 +2377,40 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.010528602005876924</v>
+        <v>0.011151207036850765</v>
       </c>
       <c r="C51">
-        <v>0.013879645011555496</v>
+        <v>0.013393471335495925</v>
       </c>
       <c r="D51">
-        <v>0.079267907323797543</v>
+        <v>0.15216521208623851</v>
       </c>
       <c r="E51">
-        <v>0.010574206116408124</v>
+        <v>0.011183756494896155</v>
       </c>
       <c r="F51">
-        <v>0.017929533736965753</v>
+        <v>0.016328195423391315</v>
       </c>
       <c r="G51">
-        <v>0.012358875340771116</v>
+        <v>0.011359620661721121</v>
       </c>
       <c r="H51">
-        <v>0.011634059977521528</v>
+        <v>0.011897734989256888</v>
       </c>
       <c r="I51">
-        <v>0.66765048099465152</v>
+        <v>0.34172447405168821</v>
       </c>
       <c r="J51">
-        <v>0.01179246249114531</v>
+        <v>0.013945411000758813</v>
       </c>
       <c r="K51">
-        <v>0.1485280147372133</v>
+        <v>0.40356617242635751</v>
       </c>
       <c r="L51">
-        <v>0.015856212264093401</v>
+        <v>0.013284744493344809</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2418,37 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.010988025729044656</v>
+        <v>0.011602593567621704</v>
       </c>
       <c r="C52">
-        <v>0.064928057630759858</v>
+        <v>0.043697182775545643</v>
       </c>
       <c r="D52">
-        <v>0.13762051750914145</v>
+        <v>0.18334465002578487</v>
       </c>
       <c r="E52">
-        <v>0.035788682597480893</v>
+        <v>0.023177374706279587</v>
       </c>
       <c r="F52">
-        <v>0.025433565823489084</v>
+        <v>0.035158750556277728</v>
       </c>
       <c r="G52">
-        <v>0.010571010072637799</v>
+        <v>0.010523540701216423</v>
       </c>
       <c r="H52">
-        <v>0.01190233104710021</v>
+        <v>0.012241648683527524</v>
       </c>
       <c r="I52">
-        <v>0.01978791912109747</v>
+        <v>0.018945290150244331</v>
       </c>
       <c r="J52">
-        <v>0.19328363857704572</v>
+        <v>0.13015766926817321</v>
       </c>
       <c r="K52">
-        <v>0.47932606480133533</v>
+        <v>0.5206803391274667</v>
       </c>
       <c r="L52">
-        <v>0.010370187090867688</v>
+        <v>0.010470960437862284</v>
       </c>
       <c r="M52">
         <v>10</v>
@@ -2441,37 +2459,37 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.012906586001862608</v>
+        <v>0.013957159665695379</v>
       </c>
       <c r="C53">
-        <v>0.079842319718542651</v>
+        <v>0.057379470228485961</v>
       </c>
       <c r="D53">
-        <v>0.12183158475869983</v>
+        <v>0.18695004632273854</v>
       </c>
       <c r="E53">
-        <v>0.032924122539579992</v>
+        <v>0.030593288830345431</v>
       </c>
       <c r="F53">
-        <v>0.024664479180992235</v>
+        <v>0.030786521615182961</v>
       </c>
       <c r="G53">
-        <v>0.010390282409228086</v>
+        <v>0.011645475577868807</v>
       </c>
       <c r="H53">
-        <v>0.013482281598542376</v>
+        <v>0.013241926666649364</v>
       </c>
       <c r="I53">
-        <v>0.019749202614015117</v>
+        <v>0.022130590081491385</v>
       </c>
       <c r="J53">
-        <v>0.1363191724114618</v>
+        <v>0.045995867298945246</v>
       </c>
       <c r="K53">
-        <v>0.53766232729162711</v>
+        <v>0.57704519069987892</v>
       </c>
       <c r="L53">
-        <v>0.010227641475448131</v>
+        <v>0.010274463012718249</v>
       </c>
       <c r="M53">
         <v>10</v>
@@ -2482,37 +2500,37 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.010903179009461706</v>
+        <v>0.010676789136861771</v>
       </c>
       <c r="C54">
-        <v>0.044960023667096886</v>
+        <v>0.040082611085626732</v>
       </c>
       <c r="D54">
-        <v>0.039628531391745214</v>
+        <v>0.13069474977883191</v>
       </c>
       <c r="E54">
-        <v>0.084414330943559851</v>
+        <v>0.031854812968826265</v>
       </c>
       <c r="F54">
-        <v>0.021334752177656437</v>
+        <v>0.029363455841965053</v>
       </c>
       <c r="G54">
-        <v>0.0105372365579454</v>
+        <v>0.01058230734631675</v>
       </c>
       <c r="H54">
-        <v>0.016770011424897896</v>
+        <v>0.012770202894788876</v>
       </c>
       <c r="I54">
-        <v>0.015087677733906967</v>
+        <v>0.015636636448847</v>
       </c>
       <c r="J54">
-        <v>0.20396395898590339</v>
+        <v>0.18355326820450818</v>
       </c>
       <c r="K54">
-        <v>0.54191854631350567</v>
+        <v>0.52428267707440901</v>
       </c>
       <c r="L54">
-        <v>0.01048175179432055</v>
+        <v>0.01050248921901843</v>
       </c>
       <c r="M54">
         <v>10</v>
@@ -2523,37 +2541,37 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6.3890422016503896e-07</v>
+        <v>0.010528602005876924</v>
       </c>
       <c r="C55">
-        <v>0.0062243848596871525</v>
+        <v>0.013879645011555496</v>
       </c>
       <c r="D55">
-        <v>0.1131065971805276</v>
+        <v>0.079267907323797543</v>
       </c>
       <c r="E55">
-        <v>6.8551503704988826e-05</v>
+        <v>0.010574206116408124</v>
       </c>
       <c r="F55">
-        <v>0.013473247909969498</v>
+        <v>0.017929533736965753</v>
       </c>
       <c r="G55">
-        <v>0.0013519594480247063</v>
+        <v>0.012358875340771116</v>
       </c>
       <c r="H55">
-        <v>0.0038041612084130801</v>
+        <v>0.011634059977521528</v>
       </c>
       <c r="I55">
-        <v>0.85673515395375388</v>
+        <v>0.66765048099465152</v>
       </c>
       <c r="J55">
-        <v>0.0018683664016156338</v>
+        <v>0.01179246249114531</v>
       </c>
       <c r="K55">
-        <v>4.4124543333459168e-14</v>
+        <v>0.1485280147372133</v>
       </c>
       <c r="L55">
-        <v>0.0033669386300390573</v>
+        <v>0.015856212264093401</v>
       </c>
       <c r="M55">
         <v>8</v>
@@ -2564,37 +2582,37 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.0108372195171746</v>
+        <v>0.010988025729044656</v>
       </c>
       <c r="C56">
-        <v>0.063500111328083586</v>
+        <v>0.064928057630759858</v>
       </c>
       <c r="D56">
-        <v>0.10992994149170722</v>
+        <v>0.13762051750914145</v>
       </c>
       <c r="E56">
-        <v>0.020330497316646049</v>
+        <v>0.035788682597480893</v>
       </c>
       <c r="F56">
-        <v>0.024048229327956909</v>
+        <v>0.025433565823489084</v>
       </c>
       <c r="G56">
-        <v>0.010622346629792636</v>
+        <v>0.010571010072637799</v>
       </c>
       <c r="H56">
-        <v>0.013293869765632037</v>
+        <v>0.01190233104710021</v>
       </c>
       <c r="I56">
-        <v>0.015128065620144099</v>
+        <v>0.01978791912109747</v>
       </c>
       <c r="J56">
-        <v>0.30319222280022989</v>
+        <v>0.19328363857704572</v>
       </c>
       <c r="K56">
-        <v>0.4184619899570069</v>
+        <v>0.47932606480133533</v>
       </c>
       <c r="L56">
-        <v>0.010655506245626003</v>
+        <v>0.010370187090867688</v>
       </c>
       <c r="M56">
         <v>10</v>
@@ -2605,37 +2623,37 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.010971585373678846</v>
+        <v>0.012906586001862608</v>
       </c>
       <c r="C57">
-        <v>0.053001793198719206</v>
+        <v>0.079842319718542651</v>
       </c>
       <c r="D57">
-        <v>0.098428640792339817</v>
+        <v>0.12183158475869983</v>
       </c>
       <c r="E57">
-        <v>0.053824904643004295</v>
+        <v>0.032924122539579992</v>
       </c>
       <c r="F57">
-        <v>0.028917057857380673</v>
+        <v>0.024664479180992235</v>
       </c>
       <c r="G57">
-        <v>0.010329439420330799</v>
+        <v>0.010390282409228086</v>
       </c>
       <c r="H57">
-        <v>0.013397012219953543</v>
+        <v>0.013482281598542376</v>
       </c>
       <c r="I57">
-        <v>0.017177411677387736</v>
+        <v>0.019749202614015117</v>
       </c>
       <c r="J57">
-        <v>0.17383545311018175</v>
+        <v>0.1363191724114618</v>
       </c>
       <c r="K57">
-        <v>0.52985087811525411</v>
+        <v>0.53766232729162711</v>
       </c>
       <c r="L57">
-        <v>0.010265823591769203</v>
+        <v>0.010227641475448131</v>
       </c>
       <c r="M57">
         <v>10</v>
@@ -2646,37 +2664,37 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.0105512132727262</v>
+        <v>0.010774493814124658</v>
       </c>
       <c r="C58">
-        <v>0.090953709460701082</v>
+        <v>0.034848072433010933</v>
       </c>
       <c r="D58">
-        <v>0.043131536844470623</v>
+        <v>0.14538831288262241</v>
       </c>
       <c r="E58">
-        <v>0.085844360166852471</v>
+        <v>0.089799387213500656</v>
       </c>
       <c r="F58">
-        <v>0.017812828645508004</v>
+        <v>0.035240684455381623</v>
       </c>
       <c r="G58">
-        <v>0.010493498839992654</v>
+        <v>0.01064487703110361</v>
       </c>
       <c r="H58">
-        <v>0.016944599946285974</v>
+        <v>0.012904470471448406</v>
       </c>
       <c r="I58">
-        <v>0.018225321599490193</v>
+        <v>0.015428977882950909</v>
       </c>
       <c r="J58">
-        <v>0.32439627550019523</v>
+        <v>0.059117951345058158</v>
       </c>
       <c r="K58">
-        <v>0.37126850722031551</v>
+        <v>0.5754665424736306</v>
       </c>
       <c r="L58">
-        <v>0.010378148503461835</v>
+        <v>0.010386229997168026</v>
       </c>
       <c r="M58">
         <v>10</v>
@@ -2687,37 +2705,37 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.012906586001862608</v>
+        <v>0.010903179009461706</v>
       </c>
       <c r="C59">
-        <v>0.079842319718542651</v>
+        <v>0.044960023667096886</v>
       </c>
       <c r="D59">
-        <v>0.12183158475869983</v>
+        <v>0.039628531391745214</v>
       </c>
       <c r="E59">
-        <v>0.032924122539579992</v>
+        <v>0.084414330943559851</v>
       </c>
       <c r="F59">
-        <v>0.024664479180992235</v>
+        <v>0.021334752177656437</v>
       </c>
       <c r="G59">
-        <v>0.010390282409228086</v>
+        <v>0.0105372365579454</v>
       </c>
       <c r="H59">
-        <v>0.013482281598542376</v>
+        <v>0.016770011424897896</v>
       </c>
       <c r="I59">
-        <v>0.019749202614015117</v>
+        <v>0.015087677733906967</v>
       </c>
       <c r="J59">
-        <v>0.1363191724114618</v>
+        <v>0.20396395898590339</v>
       </c>
       <c r="K59">
-        <v>0.53766232729162711</v>
+        <v>0.54191854631350567</v>
       </c>
       <c r="L59">
-        <v>0.010227641475448131</v>
+        <v>0.01048175179432055</v>
       </c>
       <c r="M59">
         <v>10</v>
@@ -2728,37 +2746,37 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.010780637370824473</v>
+        <v>6.3890422016503896e-07</v>
       </c>
       <c r="C60">
-        <v>0.011911105872862834</v>
+        <v>0.0062243848596871525</v>
       </c>
       <c r="D60">
-        <v>0.099404844755445324</v>
+        <v>0.1131065971805276</v>
       </c>
       <c r="E60">
-        <v>0.010797268745821676</v>
+        <v>6.8551503704988826e-05</v>
       </c>
       <c r="F60">
-        <v>0.016733829578391569</v>
+        <v>0.013473247909969498</v>
       </c>
       <c r="G60">
-        <v>0.011237864376660148</v>
+        <v>0.0013519594480247063</v>
       </c>
       <c r="H60">
-        <v>0.012111677949721905</v>
+        <v>0.0038041612084130801</v>
       </c>
       <c r="I60">
-        <v>0.63866245612500105</v>
+        <v>0.85673515395375388</v>
       </c>
       <c r="J60">
-        <v>0.01170976816088874</v>
+        <v>0.0018683664016156338</v>
       </c>
       <c r="K60">
-        <v>0.16277845889695111</v>
+        <v>4.4124543333459168e-14</v>
       </c>
       <c r="L60">
-        <v>0.013872088167431232</v>
+        <v>0.0033669386300390573</v>
       </c>
       <c r="M60">
         <v>8</v>
@@ -2769,37 +2787,37 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.011234776333256371</v>
+        <v>0.0108372195171746</v>
       </c>
       <c r="C61">
-        <v>0.20760106314179522</v>
+        <v>0.063500111328083586</v>
       </c>
       <c r="D61">
-        <v>0.019941545079074235</v>
+        <v>0.10992994149170722</v>
       </c>
       <c r="E61">
-        <v>0.011686519618388281</v>
+        <v>0.020330497316646049</v>
       </c>
       <c r="F61">
-        <v>0.023366288245021245</v>
+        <v>0.024048229327956909</v>
       </c>
       <c r="G61">
-        <v>0.014768539646626323</v>
+        <v>0.010622346629792636</v>
       </c>
       <c r="H61">
-        <v>0.010294004449219686</v>
+        <v>0.013293869765632037</v>
       </c>
       <c r="I61">
-        <v>0.2017553400937635</v>
+        <v>0.015128065620144099</v>
       </c>
       <c r="J61">
-        <v>0.19254592107663565</v>
+        <v>0.30319222280022989</v>
       </c>
       <c r="K61">
-        <v>0.26863224149518183</v>
+        <v>0.4184619899570069</v>
       </c>
       <c r="L61">
-        <v>0.038173760821037524</v>
+        <v>0.010655506245626003</v>
       </c>
       <c r="M61">
         <v>10</v>
@@ -2810,37 +2828,37 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.012787327708623852</v>
+        <v>0.010578691411638891</v>
       </c>
       <c r="C62">
-        <v>0.12973343664541667</v>
+        <v>0.073112943523429272</v>
       </c>
       <c r="D62">
-        <v>0.025481985459125653</v>
+        <v>0.11577544149722381</v>
       </c>
       <c r="E62">
-        <v>0.011857642348266022</v>
+        <v>0.039933273275898448</v>
       </c>
       <c r="F62">
-        <v>0.023848994148695707</v>
+        <v>0.025275592169350661</v>
       </c>
       <c r="G62">
-        <v>0.01421053732629066</v>
+        <v>0.010926042585955838</v>
       </c>
       <c r="H62">
-        <v>0.010797989204884392</v>
+        <v>0.01380373382576267</v>
       </c>
       <c r="I62">
-        <v>0.066671016284019557</v>
+        <v>0.014380125287188851</v>
       </c>
       <c r="J62">
-        <v>0.24546360366786352</v>
+        <v>0.14589185924843232</v>
       </c>
       <c r="K62">
-        <v>0.418970152074369</v>
+        <v>0.54002287183974429</v>
       </c>
       <c r="L62">
-        <v>0.040177315132444998</v>
+        <v>0.010299425335375017</v>
       </c>
       <c r="M62">
         <v>10</v>
@@ -2851,39 +2869,285 @@
         <v>62</v>
       </c>
       <c r="B63">
+        <v>0.010971585373678846</v>
+      </c>
+      <c r="C63">
+        <v>0.053001793198719206</v>
+      </c>
+      <c r="D63">
+        <v>0.098428640792339817</v>
+      </c>
+      <c r="E63">
+        <v>0.053824904643004295</v>
+      </c>
+      <c r="F63">
+        <v>0.028917057857380673</v>
+      </c>
+      <c r="G63">
+        <v>0.010329439420330799</v>
+      </c>
+      <c r="H63">
+        <v>0.013397012219953543</v>
+      </c>
+      <c r="I63">
+        <v>0.017177411677387736</v>
+      </c>
+      <c r="J63">
+        <v>0.17383545311018175</v>
+      </c>
+      <c r="K63">
+        <v>0.52985087811525411</v>
+      </c>
+      <c r="L63">
+        <v>0.010265823591769203</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.0105512132727262</v>
+      </c>
+      <c r="C64">
+        <v>0.090953709460701082</v>
+      </c>
+      <c r="D64">
+        <v>0.043131536844470623</v>
+      </c>
+      <c r="E64">
+        <v>0.085844360166852471</v>
+      </c>
+      <c r="F64">
+        <v>0.017812828645508004</v>
+      </c>
+      <c r="G64">
+        <v>0.010493498839992654</v>
+      </c>
+      <c r="H64">
+        <v>0.016944599946285974</v>
+      </c>
+      <c r="I64">
+        <v>0.018225321599490193</v>
+      </c>
+      <c r="J64">
+        <v>0.32439627550019523</v>
+      </c>
+      <c r="K64">
+        <v>0.37126850722031551</v>
+      </c>
+      <c r="L64">
+        <v>0.010378148503461835</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.012906586001862608</v>
+      </c>
+      <c r="C65">
+        <v>0.079842319718542651</v>
+      </c>
+      <c r="D65">
+        <v>0.12183158475869983</v>
+      </c>
+      <c r="E65">
+        <v>0.032924122539579992</v>
+      </c>
+      <c r="F65">
+        <v>0.024664479180992235</v>
+      </c>
+      <c r="G65">
+        <v>0.010390282409228086</v>
+      </c>
+      <c r="H65">
+        <v>0.013482281598542376</v>
+      </c>
+      <c r="I65">
+        <v>0.019749202614015117</v>
+      </c>
+      <c r="J65">
+        <v>0.1363191724114618</v>
+      </c>
+      <c r="K65">
+        <v>0.53766232729162711</v>
+      </c>
+      <c r="L65">
+        <v>0.010227641475448131</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.010780637370824473</v>
+      </c>
+      <c r="C66">
+        <v>0.011911105872862834</v>
+      </c>
+      <c r="D66">
+        <v>0.099404844755445324</v>
+      </c>
+      <c r="E66">
+        <v>0.010797268745821676</v>
+      </c>
+      <c r="F66">
+        <v>0.016733829578391569</v>
+      </c>
+      <c r="G66">
+        <v>0.011237864376660148</v>
+      </c>
+      <c r="H66">
+        <v>0.012111677949721905</v>
+      </c>
+      <c r="I66">
+        <v>0.63866245612500105</v>
+      </c>
+      <c r="J66">
+        <v>0.01170976816088874</v>
+      </c>
+      <c r="K66">
+        <v>0.16277845889695111</v>
+      </c>
+      <c r="L66">
+        <v>0.013872088167431232</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.011234776333256371</v>
+      </c>
+      <c r="C67">
+        <v>0.20760106314179522</v>
+      </c>
+      <c r="D67">
+        <v>0.019941545079074235</v>
+      </c>
+      <c r="E67">
+        <v>0.011686519618388281</v>
+      </c>
+      <c r="F67">
+        <v>0.023366288245021245</v>
+      </c>
+      <c r="G67">
+        <v>0.014768539646626323</v>
+      </c>
+      <c r="H67">
+        <v>0.010294004449219686</v>
+      </c>
+      <c r="I67">
+        <v>0.2017553400937635</v>
+      </c>
+      <c r="J67">
+        <v>0.19254592107663565</v>
+      </c>
+      <c r="K67">
+        <v>0.26863224149518183</v>
+      </c>
+      <c r="L67">
+        <v>0.038173760821037524</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.012787327708623852</v>
+      </c>
+      <c r="C68">
+        <v>0.12973343664541667</v>
+      </c>
+      <c r="D68">
+        <v>0.025481985459125653</v>
+      </c>
+      <c r="E68">
+        <v>0.011857642348266022</v>
+      </c>
+      <c r="F68">
+        <v>0.023848994148695707</v>
+      </c>
+      <c r="G68">
+        <v>0.01421053732629066</v>
+      </c>
+      <c r="H68">
+        <v>0.010797989204884392</v>
+      </c>
+      <c r="I68">
+        <v>0.066671016284019557</v>
+      </c>
+      <c r="J68">
+        <v>0.24546360366786352</v>
+      </c>
+      <c r="K68">
+        <v>0.418970152074369</v>
+      </c>
+      <c r="L68">
+        <v>0.040177315132444998</v>
+      </c>
+      <c r="M68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>0.028462338754400355</v>
       </c>
-      <c r="C63">
+      <c r="C69">
         <v>0.17580210925201437</v>
       </c>
-      <c r="D63">
+      <c r="D69">
         <v>0.017434704906355614</v>
       </c>
-      <c r="E63">
+      <c r="E69">
         <v>0.026801630508811403</v>
       </c>
-      <c r="F63">
+      <c r="F69">
         <v>0.021505897830193531</v>
       </c>
-      <c r="G63">
+      <c r="G69">
         <v>0.012337010743314105</v>
       </c>
-      <c r="H63">
+      <c r="H69">
         <v>0.011242022087239449</v>
       </c>
-      <c r="I63">
+      <c r="I69">
         <v>0.056148095935059296</v>
       </c>
-      <c r="J63">
+      <c r="J69">
         <v>0.28819806595647451</v>
       </c>
-      <c r="K63">
+      <c r="K69">
         <v>0.33601184837145187</v>
       </c>
-      <c r="L63">
+      <c r="L69">
         <v>0.026056275654685497</v>
       </c>
-      <c r="M63">
+      <c r="M69">
         <v>10</v>
       </c>
     </row>
